--- a/rill_final_enhanced/comprehensive_results.xlsx
+++ b/rill_final_enhanced/comprehensive_results.xlsx
@@ -35,18 +35,18 @@
     <t>Max_ROC_AUC</t>
   </si>
   <si>
+    <t>LightGBM</t>
+  </si>
+  <si>
     <t>XGBoost</t>
   </si>
   <si>
-    <t>LightGBM</t>
+    <t>GBM</t>
   </si>
   <si>
     <t>CatBoost</t>
   </si>
   <si>
-    <t>GBM</t>
-  </si>
-  <si>
     <t>RandomForest</t>
   </si>
   <si>
@@ -89,105 +89,105 @@
     <t>Contract_Two year</t>
   </si>
   <si>
+    <t>tenure</t>
+  </si>
+  <si>
     <t>Contract_One year</t>
   </si>
   <si>
     <t>InternetService_Fiber optic</t>
   </si>
   <si>
+    <t>PaperlessBilling_Yes</t>
+  </si>
+  <si>
+    <t>Churn_Risk_Score</t>
+  </si>
+  <si>
+    <t>gender_Male</t>
+  </si>
+  <si>
+    <t>StreamingMovies_Yes</t>
+  </si>
+  <si>
+    <t>MultipleLines_Yes</t>
+  </si>
+  <si>
+    <t>PaymentMethod_Electronic check</t>
+  </si>
+  <si>
+    <t>OnlineSecurity_Yes</t>
+  </si>
+  <si>
+    <t>StreamingTV_Yes</t>
+  </si>
+  <si>
+    <t>TechSupport_Yes</t>
+  </si>
+  <si>
+    <t>Partner_Yes</t>
+  </si>
+  <si>
+    <t>MonthlyCharges</t>
+  </si>
+  <si>
+    <t>Engagement_Score</t>
+  </si>
+  <si>
+    <t>TotalCharges</t>
+  </si>
+  <si>
+    <t>Dependents_Yes</t>
+  </si>
+  <si>
+    <t>OnlineBackup_Yes</t>
+  </si>
+  <si>
+    <t>Service_Utilization</t>
+  </si>
+  <si>
+    <t>DeviceProtection_Yes</t>
+  </si>
+  <si>
     <t>InternetService_No</t>
   </si>
   <si>
-    <t>StreamingMovies_Yes</t>
+    <t>SeniorCitizen</t>
+  </si>
+  <si>
+    <t>Payment_Reliability</t>
+  </si>
+  <si>
+    <t>PaymentMethod_Mailed check</t>
   </si>
   <si>
     <t>PhoneService_Yes</t>
   </si>
   <si>
-    <t>PaperlessBilling_Yes</t>
-  </si>
-  <si>
-    <t>OnlineSecurity_Yes</t>
-  </si>
-  <si>
-    <t>TechSupport_Yes</t>
-  </si>
-  <si>
-    <t>MultipleLines_Yes</t>
-  </si>
-  <si>
-    <t>StreamingTV_Yes</t>
-  </si>
-  <si>
-    <t>gender_Male</t>
-  </si>
-  <si>
-    <t>Partner_Yes</t>
-  </si>
-  <si>
-    <t>Churn_Risk_Score</t>
-  </si>
-  <si>
-    <t>tenure</t>
-  </si>
-  <si>
-    <t>Dependents_Yes</t>
-  </si>
-  <si>
-    <t>OnlineBackup_Yes</t>
-  </si>
-  <si>
-    <t>DeviceProtection_Yes</t>
-  </si>
-  <si>
-    <t>SeniorCitizen</t>
-  </si>
-  <si>
-    <t>PaymentMethod_Electronic check</t>
-  </si>
-  <si>
     <t>PaymentMethod_Credit card (automatic)</t>
   </si>
   <si>
-    <t>Service_Utilization</t>
-  </si>
-  <si>
-    <t>TotalCharges</t>
-  </si>
-  <si>
-    <t>Payment_Reliability</t>
-  </si>
-  <si>
-    <t>PaymentMethod_Mailed check</t>
-  </si>
-  <si>
-    <t>MonthlyCharges</t>
-  </si>
-  <si>
-    <t>Engagement_Score</t>
+    <t>TechSupport_No internet service</t>
+  </si>
+  <si>
+    <t>StreamingTV_No internet service</t>
+  </si>
+  <si>
+    <t>DeviceProtection_No internet service</t>
+  </si>
+  <si>
+    <t>StreamingMovies_No internet service</t>
   </si>
   <si>
     <t>OnlineBackup_No internet service</t>
   </si>
   <si>
-    <t>DeviceProtection_No internet service</t>
-  </si>
-  <si>
     <t>OnlineSecurity_No internet service</t>
   </si>
   <si>
-    <t>TechSupport_No internet service</t>
-  </si>
-  <si>
     <t>MultipleLines_No phone service</t>
   </si>
   <si>
-    <t>StreamingTV_No internet service</t>
-  </si>
-  <si>
-    <t>StreamingMovies_No internet service</t>
-  </si>
-  <si>
     <t>Best_Score</t>
   </si>
   <si>
@@ -197,16 +197,16 @@
     <t>{'max_depth': 7, 'min_samples_split': 2}</t>
   </si>
   <si>
-    <t>{'n_estimators': 200, 'learning_rate': 0.1, 'max_depth': 3}</t>
-  </si>
-  <si>
-    <t>{'n_estimators': 321, 'learning_rate': 0.06300931103212497, 'max_depth': 10, 'subsample': 0.9763167074936845}</t>
-  </si>
-  <si>
-    <t>{'n_estimators': 200, 'max_depth': None, 'min_samples_split': 5}</t>
-  </si>
-  <si>
-    <t>{'C': 10, 'penalty': 'l1', 'solver': 'liblinear'}</t>
+    <t>{'n_estimators': 200, 'learning_rate': 0.1, 'max_depth': 5}</t>
+  </si>
+  <si>
+    <t>{'n_estimators': 405, 'learning_rate': 0.03190170507932914, 'max_depth': 5, 'subsample': 0.8330739643064703}</t>
+  </si>
+  <si>
+    <t>{'n_estimators': 200, 'max_depth': None, 'min_samples_split': 2}</t>
+  </si>
+  <si>
+    <t>{'C': 10, 'penalty': 'l2', 'solver': 'liblinear'}</t>
   </si>
   <si>
     <t>{'C': 1, 'kernel': 'rbf'}</t>
@@ -215,13 +215,13 @@
     <t>{'hidden_layer_sizes': (50, 50), 'alpha': 0.001}</t>
   </si>
   <si>
-    <t>{'n_estimators': 100, 'learning_rate': 1.0}</t>
-  </si>
-  <si>
-    <t>{'n_estimators': 357, 'learning_rate': 0.02360066347615561, 'max_depth': 9}</t>
-  </si>
-  <si>
-    <t>{'iterations': 254, 'learning_rate': 0.07356592116164103, 'depth': 4}</t>
+    <t>{'n_estimators': 50, 'learning_rate': 1.0}</t>
+  </si>
+  <si>
+    <t>{'n_estimators': 289, 'learning_rate': 0.03360337138960828, 'max_depth': 9}</t>
+  </si>
+  <si>
+    <t>{'iterations': 390, 'learning_rate': 0.20990428329441085, 'depth': 9}</t>
   </si>
   <si>
     <t>Dataset_Shape</t>
@@ -257,7 +257,7 @@
     <t>(7043, 24)</t>
   </si>
   <si>
-    <t>0.21 seconds</t>
+    <t>0.80 seconds</t>
   </si>
 </sst>
 </file>
@@ -643,16 +643,16 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>0.9384526304485281</v>
+        <v>0.9378567661446906</v>
       </c>
       <c r="C2">
-        <v>0.003590097008791058</v>
+        <v>0.005045803577107066</v>
       </c>
       <c r="D2">
-        <v>0.9332282118128556</v>
+        <v>0.9307450078957943</v>
       </c>
       <c r="E2">
-        <v>0.9427855959298933</v>
+        <v>0.9446157436579617</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -660,16 +660,16 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>0.9371885711928079</v>
+        <v>0.9369957806490004</v>
       </c>
       <c r="C3">
-        <v>0.005090180397531373</v>
+        <v>0.004857517908030646</v>
       </c>
       <c r="D3">
-        <v>0.9299914033956587</v>
+        <v>0.9299605677496519</v>
       </c>
       <c r="E3">
-        <v>0.9438091904128452</v>
+        <v>0.9432448831944736</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -677,16 +677,16 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>0.9359434871219987</v>
+        <v>0.9365267018141573</v>
       </c>
       <c r="C4">
-        <v>0.005123916266409866</v>
+        <v>0.005620164765551236</v>
       </c>
       <c r="D4">
-        <v>0.9293461908633046</v>
+        <v>0.9287509694540222</v>
       </c>
       <c r="E4">
-        <v>0.9421858153049081</v>
+        <v>0.9435562090130458</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -694,16 +694,16 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>0.9341406708538322</v>
+        <v>0.9359366982241133</v>
       </c>
       <c r="C5">
-        <v>0.005312923579852877</v>
+        <v>0.00402218614613309</v>
       </c>
       <c r="D5">
-        <v>0.9264467057251516</v>
+        <v>0.9321101860417308</v>
       </c>
       <c r="E5">
-        <v>0.9396998763098322</v>
+        <v>0.9429116198744429</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -711,16 +711,16 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>0.9293154991260074</v>
+        <v>0.931586238806392</v>
       </c>
       <c r="C6">
-        <v>0.004030229756660424</v>
+        <v>0.003900995165645471</v>
       </c>
       <c r="D6">
-        <v>0.9243470785561442</v>
+        <v>0.9273974714770274</v>
       </c>
       <c r="E6">
-        <v>0.9341156153002403</v>
+        <v>0.936930150061845</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -728,16 +728,16 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>0.9179217360518358</v>
+        <v>0.9037287353326985</v>
       </c>
       <c r="C7">
-        <v>0.005741320012973289</v>
+        <v>0.004887034643609338</v>
       </c>
       <c r="D7">
-        <v>0.9092586363169157</v>
+        <v>0.8986408955419131</v>
       </c>
       <c r="E7">
-        <v>0.9245844710494995</v>
+        <v>0.9114205699082826</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -796,16 +796,16 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>0.8578936439703041</v>
+        <v>0.8579057844846097</v>
       </c>
       <c r="C11">
-        <v>0.008293769420679668</v>
+        <v>0.00826930363894569</v>
       </c>
       <c r="D11">
-        <v>0.8465987348041002</v>
+        <v>0.8466529307879909</v>
       </c>
       <c r="E11">
-        <v>0.871335153679199</v>
+        <v>0.8712912786762819</v>
       </c>
     </row>
   </sheetData>
@@ -840,19 +840,19 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
-        <v>0.8554310011596443</v>
+        <v>0.8577502899110939</v>
       </c>
       <c r="B2">
-        <v>0.8526477359938603</v>
+        <v>0.8495842781557067</v>
       </c>
       <c r="C2">
-        <v>0.8592420726991493</v>
+        <v>0.8692962103634957</v>
       </c>
       <c r="D2">
-        <v>0.8559322033898306</v>
+        <v>0.8593272171253823</v>
       </c>
       <c r="E2">
-        <v>0.9358078991502214</v>
+        <v>0.9376804240166107</v>
       </c>
     </row>
   </sheetData>
@@ -881,7 +881,7 @@
         <v>22</v>
       </c>
       <c r="B2">
-        <v>0.3922290205955505</v>
+        <v>0.1652325366679992</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -889,7 +889,7 @@
         <v>23</v>
       </c>
       <c r="B3">
-        <v>0.1671630591154099</v>
+        <v>0.09748734068750184</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -897,7 +897,7 @@
         <v>24</v>
       </c>
       <c r="B4">
-        <v>0.1087446585297585</v>
+        <v>0.09119431032236718</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -905,7 +905,7 @@
         <v>25</v>
       </c>
       <c r="B5">
-        <v>0.05516307428479195</v>
+        <v>0.08789201493485425</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -913,7 +913,7 @@
         <v>26</v>
       </c>
       <c r="B6">
-        <v>0.03011585958302021</v>
+        <v>0.04910840706522938</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -921,7 +921,7 @@
         <v>27</v>
       </c>
       <c r="B7">
-        <v>0.01894261501729488</v>
+        <v>0.04382938437571415</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -929,7 +929,7 @@
         <v>28</v>
       </c>
       <c r="B8">
-        <v>0.01757729612290859</v>
+        <v>0.04243863981305955</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -937,7 +937,7 @@
         <v>29</v>
       </c>
       <c r="B9">
-        <v>0.01594244875013828</v>
+        <v>0.03885028183695483</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -945,7 +945,7 @@
         <v>30</v>
       </c>
       <c r="B10">
-        <v>0.01486236602067947</v>
+        <v>0.03738536521971948</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -953,7 +953,7 @@
         <v>31</v>
       </c>
       <c r="B11">
-        <v>0.01396017055958509</v>
+        <v>0.03563554248707815</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -961,7 +961,7 @@
         <v>32</v>
       </c>
       <c r="B12">
-        <v>0.01369419321417809</v>
+        <v>0.03188064474372015</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -969,7 +969,7 @@
         <v>33</v>
       </c>
       <c r="B13">
-        <v>0.01292528677731752</v>
+        <v>0.03140728454415398</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -977,7 +977,7 @@
         <v>34</v>
       </c>
       <c r="B14">
-        <v>0.01219050586223602</v>
+        <v>0.03087617350380043</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -985,7 +985,7 @@
         <v>35</v>
       </c>
       <c r="B15">
-        <v>0.01199652999639511</v>
+        <v>0.03015839556152783</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -993,7 +993,7 @@
         <v>36</v>
       </c>
       <c r="B16">
-        <v>0.0119106899946928</v>
+        <v>0.02727901796378082</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1001,7 +1001,7 @@
         <v>37</v>
       </c>
       <c r="B17">
-        <v>0.01146294362843037</v>
+        <v>0.0267423799558632</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1009,7 +1009,7 @@
         <v>38</v>
       </c>
       <c r="B18">
-        <v>0.01136845257133245</v>
+        <v>0.01891893249391045</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1017,7 +1017,7 @@
         <v>39</v>
       </c>
       <c r="B19">
-        <v>0.01091733388602734</v>
+        <v>0.01747324720502875</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1025,7 +1025,7 @@
         <v>40</v>
       </c>
       <c r="B20">
-        <v>0.009065080434083939</v>
+        <v>0.01647825720142531</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1033,7 +1033,7 @@
         <v>41</v>
       </c>
       <c r="B21">
-        <v>0.008751780726015568</v>
+        <v>0.01582081078771513</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1041,7 +1041,7 @@
         <v>42</v>
       </c>
       <c r="B22">
-        <v>0.008691925555467606</v>
+        <v>0.0149564154889756</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -1049,7 +1049,7 @@
         <v>43</v>
       </c>
       <c r="B23">
-        <v>0.008507815189659595</v>
+        <v>0.01083242304090633</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1057,7 +1057,7 @@
         <v>44</v>
       </c>
       <c r="B24">
-        <v>0.006994717288762331</v>
+        <v>0.009772622401450014</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -1065,7 +1065,7 @@
         <v>45</v>
       </c>
       <c r="B25">
-        <v>0.006950548384338617</v>
+        <v>0.007876845448582949</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1073,7 +1073,7 @@
         <v>46</v>
       </c>
       <c r="B26">
-        <v>0.006845344789326191</v>
+        <v>0.007677878877458334</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -1081,7 +1081,7 @@
         <v>47</v>
       </c>
       <c r="B27">
-        <v>0.006560888141393661</v>
+        <v>0.007508137613725288</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -1089,7 +1089,7 @@
         <v>48</v>
       </c>
       <c r="B28">
-        <v>0.006465419661253691</v>
+        <v>0.005286709757497505</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -1185,10 +1185,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0.9312623139856374</v>
+        <v>0.9321785069177858</v>
       </c>
       <c r="C3" t="s">
         <v>59</v>
@@ -1196,10 +1196,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4">
-        <v>0.9337462857141491</v>
+        <v>0.9342922740648654</v>
       </c>
       <c r="C4" t="s">
         <v>60</v>
@@ -1210,7 +1210,7 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.9216712120439603</v>
+        <v>0.9231447417024391</v>
       </c>
       <c r="C5" t="s">
         <v>61</v>
@@ -1221,7 +1221,7 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>0.8553452144315946</v>
+        <v>0.8553372206852252</v>
       </c>
       <c r="C6" t="s">
         <v>62</v>
@@ -1254,7 +1254,7 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>0.9164291496832149</v>
+        <v>0.9015429133764968</v>
       </c>
       <c r="C9" t="s">
         <v>65</v>
@@ -1262,10 +1262,10 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B10">
-        <v>0.9345651394708481</v>
+        <v>0.9348307662212567</v>
       </c>
       <c r="C10" t="s">
         <v>66</v>
@@ -1273,10 +1273,10 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B11">
-        <v>0.9332237034682832</v>
+        <v>0.9314058070974655</v>
       </c>
       <c r="C11" t="s">
         <v>67</v>
@@ -1338,22 +1338,22 @@
         <v>5</v>
       </c>
       <c r="D2">
-        <v>0.9384526304485281</v>
+        <v>0.9378567661446906</v>
       </c>
       <c r="E2">
-        <v>0.8554310011596443</v>
+        <v>0.8577502899110939</v>
       </c>
       <c r="F2">
-        <v>0.8526477359938603</v>
+        <v>0.8495842781557067</v>
       </c>
       <c r="G2">
-        <v>0.8592420726991493</v>
+        <v>0.8692962103634957</v>
       </c>
       <c r="H2">
-        <v>0.8559322033898306</v>
+        <v>0.8593272171253823</v>
       </c>
       <c r="I2">
-        <v>0.9358078991502214</v>
+        <v>0.9376804240166107</v>
       </c>
       <c r="J2" t="s">
         <v>79</v>

--- a/rill_final_enhanced/comprehensive_results.xlsx
+++ b/rill_final_enhanced/comprehensive_results.xlsx
@@ -35,18 +35,18 @@
     <t>Max_ROC_AUC</t>
   </si>
   <si>
+    <t>CatBoost</t>
+  </si>
+  <si>
+    <t>XGBoost</t>
+  </si>
+  <si>
     <t>LightGBM</t>
   </si>
   <si>
-    <t>XGBoost</t>
-  </si>
-  <si>
     <t>GBM</t>
   </si>
   <si>
-    <t>CatBoost</t>
-  </si>
-  <si>
     <t>RandomForest</t>
   </si>
   <si>
@@ -86,108 +86,108 @@
     <t>importance</t>
   </si>
   <si>
+    <t>tenure</t>
+  </si>
+  <si>
+    <t>InternetService_Fiber optic</t>
+  </si>
+  <si>
     <t>Contract_Two year</t>
   </si>
   <si>
-    <t>tenure</t>
+    <t>PaymentMethod_Electronic check</t>
+  </si>
+  <si>
+    <t>PaperlessBilling_Yes</t>
+  </si>
+  <si>
+    <t>Churn_Risk_Score</t>
+  </si>
+  <si>
+    <t>gender_Male</t>
   </si>
   <si>
     <t>Contract_One year</t>
   </si>
   <si>
-    <t>InternetService_Fiber optic</t>
-  </si>
-  <si>
-    <t>PaperlessBilling_Yes</t>
-  </si>
-  <si>
-    <t>Churn_Risk_Score</t>
-  </si>
-  <si>
-    <t>gender_Male</t>
+    <t>MultipleLines_Yes</t>
+  </si>
+  <si>
+    <t>TechSupport_Yes</t>
+  </si>
+  <si>
+    <t>OnlineSecurity_Yes</t>
+  </si>
+  <si>
+    <t>StreamingTV_Yes</t>
+  </si>
+  <si>
+    <t>Partner_Yes</t>
+  </si>
+  <si>
+    <t>MonthlyCharges</t>
+  </si>
+  <si>
+    <t>TotalCharges</t>
   </si>
   <si>
     <t>StreamingMovies_Yes</t>
   </si>
   <si>
-    <t>MultipleLines_Yes</t>
-  </si>
-  <si>
-    <t>PaymentMethod_Electronic check</t>
-  </si>
-  <si>
-    <t>OnlineSecurity_Yes</t>
-  </si>
-  <si>
-    <t>StreamingTV_Yes</t>
-  </si>
-  <si>
-    <t>TechSupport_Yes</t>
-  </si>
-  <si>
-    <t>Partner_Yes</t>
-  </si>
-  <si>
-    <t>MonthlyCharges</t>
-  </si>
-  <si>
     <t>Engagement_Score</t>
   </si>
   <si>
-    <t>TotalCharges</t>
+    <t>OnlineBackup_Yes</t>
   </si>
   <si>
     <t>Dependents_Yes</t>
   </si>
   <si>
-    <t>OnlineBackup_Yes</t>
+    <t>SeniorCitizen</t>
+  </si>
+  <si>
+    <t>DeviceProtection_Yes</t>
   </si>
   <si>
     <t>Service_Utilization</t>
   </si>
   <si>
-    <t>DeviceProtection_Yes</t>
+    <t>PaymentMethod_Mailed check</t>
+  </si>
+  <si>
+    <t>PaymentMethod_Credit card (automatic)</t>
+  </si>
+  <si>
+    <t>Payment_Reliability</t>
+  </si>
+  <si>
+    <t>MultipleLines_No phone service</t>
+  </si>
+  <si>
+    <t>TechSupport_No internet service</t>
+  </si>
+  <si>
+    <t>PhoneService_Yes</t>
+  </si>
+  <si>
+    <t>StreamingMovies_No internet service</t>
   </si>
   <si>
     <t>InternetService_No</t>
   </si>
   <si>
-    <t>SeniorCitizen</t>
-  </si>
-  <si>
-    <t>Payment_Reliability</t>
-  </si>
-  <si>
-    <t>PaymentMethod_Mailed check</t>
-  </si>
-  <si>
-    <t>PhoneService_Yes</t>
-  </si>
-  <si>
-    <t>PaymentMethod_Credit card (automatic)</t>
-  </si>
-  <si>
-    <t>TechSupport_No internet service</t>
+    <t>OnlineBackup_No internet service</t>
+  </si>
+  <si>
+    <t>DeviceProtection_No internet service</t>
   </si>
   <si>
     <t>StreamingTV_No internet service</t>
   </si>
   <si>
-    <t>DeviceProtection_No internet service</t>
-  </si>
-  <si>
-    <t>StreamingMovies_No internet service</t>
-  </si>
-  <si>
-    <t>OnlineBackup_No internet service</t>
-  </si>
-  <si>
     <t>OnlineSecurity_No internet service</t>
   </si>
   <si>
-    <t>MultipleLines_No phone service</t>
-  </si>
-  <si>
     <t>Best_Score</t>
   </si>
   <si>
@@ -200,13 +200,13 @@
     <t>{'n_estimators': 200, 'learning_rate': 0.1, 'max_depth': 5}</t>
   </si>
   <si>
-    <t>{'n_estimators': 405, 'learning_rate': 0.03190170507932914, 'max_depth': 5, 'subsample': 0.8330739643064703}</t>
+    <t>{'n_estimators': 389, 'learning_rate': 0.024330402377997752, 'max_depth': 9, 'subsample': 0.8530775100878596}</t>
   </si>
   <si>
     <t>{'n_estimators': 200, 'max_depth': None, 'min_samples_split': 2}</t>
   </si>
   <si>
-    <t>{'C': 10, 'penalty': 'l2', 'solver': 'liblinear'}</t>
+    <t>{'C': 10, 'penalty': 'l1', 'solver': 'liblinear'}</t>
   </si>
   <si>
     <t>{'C': 1, 'kernel': 'rbf'}</t>
@@ -215,13 +215,13 @@
     <t>{'hidden_layer_sizes': (50, 50), 'alpha': 0.001}</t>
   </si>
   <si>
-    <t>{'n_estimators': 50, 'learning_rate': 1.0}</t>
-  </si>
-  <si>
-    <t>{'n_estimators': 289, 'learning_rate': 0.03360337138960828, 'max_depth': 9}</t>
-  </si>
-  <si>
-    <t>{'iterations': 390, 'learning_rate': 0.20990428329441085, 'depth': 9}</t>
+    <t>{'n_estimators': 100, 'learning_rate': 1.0}</t>
+  </si>
+  <si>
+    <t>{'n_estimators': 329, 'learning_rate': 0.025401461056286573, 'max_depth': 10}</t>
+  </si>
+  <si>
+    <t>{'iterations': 470, 'learning_rate': 0.055830482499039276, 'depth': 8}</t>
   </si>
   <si>
     <t>Dataset_Shape</t>
@@ -257,7 +257,7 @@
     <t>(7043, 24)</t>
   </si>
   <si>
-    <t>0.80 seconds</t>
+    <t>0.29 seconds</t>
   </si>
 </sst>
 </file>
@@ -643,16 +643,16 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>0.9378567661446906</v>
+        <v>0.9399862132928403</v>
       </c>
       <c r="C2">
-        <v>0.005045803577107066</v>
+        <v>0.004408357756093469</v>
       </c>
       <c r="D2">
-        <v>0.9307450078957943</v>
+        <v>0.9337781141666434</v>
       </c>
       <c r="E2">
-        <v>0.9446157436579617</v>
+        <v>0.9456174006394548</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -660,16 +660,16 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>0.9369957806490004</v>
+        <v>0.9399349346653103</v>
       </c>
       <c r="C3">
-        <v>0.004857517908030646</v>
+        <v>0.004154994186249861</v>
       </c>
       <c r="D3">
-        <v>0.9299605677496519</v>
+        <v>0.9336940169502612</v>
       </c>
       <c r="E3">
-        <v>0.9432448831944736</v>
+        <v>0.9451473780018202</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -677,16 +677,16 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>0.9365267018141573</v>
+        <v>0.9371586786273403</v>
       </c>
       <c r="C4">
-        <v>0.005620164765551236</v>
+        <v>0.004770549328645539</v>
       </c>
       <c r="D4">
-        <v>0.9287509694540222</v>
+        <v>0.9305216830656239</v>
       </c>
       <c r="E4">
-        <v>0.9435562090130458</v>
+        <v>0.9431912063292026</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -694,16 +694,16 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>0.9359366982241133</v>
+        <v>0.9365267018141573</v>
       </c>
       <c r="C5">
-        <v>0.00402218614613309</v>
+        <v>0.005620164765551236</v>
       </c>
       <c r="D5">
-        <v>0.9321101860417308</v>
+        <v>0.9287509694540222</v>
       </c>
       <c r="E5">
-        <v>0.9429116198744429</v>
+        <v>0.9435562090130458</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -728,16 +728,16 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>0.9037287353326985</v>
+        <v>0.9179217360518358</v>
       </c>
       <c r="C7">
-        <v>0.004887034643609338</v>
+        <v>0.005741320012973289</v>
       </c>
       <c r="D7">
-        <v>0.8986408955419131</v>
+        <v>0.9092586363169157</v>
       </c>
       <c r="E7">
-        <v>0.9114205699082826</v>
+        <v>0.9245844710494995</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -796,16 +796,16 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>0.8579057844846097</v>
+        <v>0.8578936439703041</v>
       </c>
       <c r="C11">
-        <v>0.00826930363894569</v>
+        <v>0.008293769420679668</v>
       </c>
       <c r="D11">
-        <v>0.8466529307879909</v>
+        <v>0.8465987348041002</v>
       </c>
       <c r="E11">
-        <v>0.8712912786762819</v>
+        <v>0.871335153679199</v>
       </c>
     </row>
   </sheetData>
@@ -840,19 +840,19 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
-        <v>0.8577502899110939</v>
+        <v>0.8488596830305373</v>
       </c>
       <c r="B2">
-        <v>0.8495842781557067</v>
+        <v>0.8442748091603054</v>
       </c>
       <c r="C2">
-        <v>0.8692962103634957</v>
+        <v>0.8553750966744006</v>
       </c>
       <c r="D2">
-        <v>0.8593272171253823</v>
+        <v>0.8497887053399923</v>
       </c>
       <c r="E2">
-        <v>0.9376804240166107</v>
+        <v>0.9373442301968393</v>
       </c>
     </row>
   </sheetData>
@@ -881,7 +881,7 @@
         <v>22</v>
       </c>
       <c r="B2">
-        <v>0.1652325366679992</v>
+        <v>0.1056053937291425</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -889,7 +889,7 @@
         <v>23</v>
       </c>
       <c r="B3">
-        <v>0.09748734068750184</v>
+        <v>0.0986179420753179</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -897,7 +897,7 @@
         <v>24</v>
       </c>
       <c r="B4">
-        <v>0.09119431032236718</v>
+        <v>0.07300695698395551</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -905,7 +905,7 @@
         <v>25</v>
       </c>
       <c r="B5">
-        <v>0.08789201493485425</v>
+        <v>0.05545561905866541</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -913,7 +913,7 @@
         <v>26</v>
       </c>
       <c r="B6">
-        <v>0.04910840706522938</v>
+        <v>0.05390967941987079</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -921,7 +921,7 @@
         <v>27</v>
       </c>
       <c r="B7">
-        <v>0.04382938437571415</v>
+        <v>0.0515911627919607</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -929,7 +929,7 @@
         <v>28</v>
       </c>
       <c r="B8">
-        <v>0.04243863981305955</v>
+        <v>0.04813526711462898</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -937,7 +937,7 @@
         <v>29</v>
       </c>
       <c r="B9">
-        <v>0.03885028183695483</v>
+        <v>0.0469590324445362</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -945,7 +945,7 @@
         <v>30</v>
       </c>
       <c r="B10">
-        <v>0.03738536521971948</v>
+        <v>0.04389220702032604</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -953,7 +953,7 @@
         <v>31</v>
       </c>
       <c r="B11">
-        <v>0.03563554248707815</v>
+        <v>0.04099343712620392</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -961,7 +961,7 @@
         <v>32</v>
       </c>
       <c r="B12">
-        <v>0.03188064474372015</v>
+        <v>0.03894688543481777</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -969,7 +969,7 @@
         <v>33</v>
       </c>
       <c r="B13">
-        <v>0.03140728454415398</v>
+        <v>0.03430473577578552</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -977,7 +977,7 @@
         <v>34</v>
       </c>
       <c r="B14">
-        <v>0.03087617350380043</v>
+        <v>0.03414249398720823</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -985,7 +985,7 @@
         <v>35</v>
       </c>
       <c r="B15">
-        <v>0.03015839556152783</v>
+        <v>0.03317016779921974</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -993,7 +993,7 @@
         <v>36</v>
       </c>
       <c r="B16">
-        <v>0.02727901796378082</v>
+        <v>0.0331492231993009</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1001,7 +1001,7 @@
         <v>37</v>
       </c>
       <c r="B17">
-        <v>0.0267423799558632</v>
+        <v>0.0314018207327075</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1009,7 +1009,7 @@
         <v>38</v>
       </c>
       <c r="B18">
-        <v>0.01891893249391045</v>
+        <v>0.02935029416586906</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1017,7 +1017,7 @@
         <v>39</v>
       </c>
       <c r="B19">
-        <v>0.01747324720502875</v>
+        <v>0.02559386333463404</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1025,7 +1025,7 @@
         <v>40</v>
       </c>
       <c r="B20">
-        <v>0.01647825720142531</v>
+        <v>0.02430567990955977</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1033,7 +1033,7 @@
         <v>41</v>
       </c>
       <c r="B21">
-        <v>0.01582081078771513</v>
+        <v>0.01870481754653981</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1041,7 +1041,7 @@
         <v>42</v>
       </c>
       <c r="B22">
-        <v>0.0149564154889756</v>
+        <v>0.0183512915492769</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -1049,7 +1049,7 @@
         <v>43</v>
       </c>
       <c r="B23">
-        <v>0.01083242304090633</v>
+        <v>0.01583205317198501</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1057,7 +1057,7 @@
         <v>44</v>
       </c>
       <c r="B24">
-        <v>0.009772622401450014</v>
+        <v>0.01019461334084678</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -1065,7 +1065,7 @@
         <v>45</v>
       </c>
       <c r="B25">
-        <v>0.007876845448582949</v>
+        <v>0.008214671033119635</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1073,7 +1073,7 @@
         <v>46</v>
       </c>
       <c r="B26">
-        <v>0.007677878877458334</v>
+        <v>0.007801955749687254</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -1081,7 +1081,7 @@
         <v>47</v>
       </c>
       <c r="B27">
-        <v>0.007508137613725288</v>
+        <v>0.004477365454863085</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -1089,7 +1089,7 @@
         <v>48</v>
       </c>
       <c r="B28">
-        <v>0.005286709757497505</v>
+        <v>0.003686965305675825</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -1097,7 +1097,7 @@
         <v>49</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>0.003343738507926415</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1105,7 +1105,7 @@
         <v>50</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>0.002499174218535384</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1113,7 +1113,7 @@
         <v>51</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>0.001522227681526917</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1121,7 +1121,7 @@
         <v>52</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>0.001324943316811789</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1129,7 +1129,7 @@
         <v>53</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>0.0008183815607708296</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1137,7 +1137,7 @@
         <v>54</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>0.0006959394587238863</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1185,7 +1185,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0.9321785069177858</v>
@@ -1199,7 +1199,7 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.9342922740648654</v>
+        <v>0.9350274647018457</v>
       </c>
       <c r="C4" t="s">
         <v>60</v>
@@ -1221,7 +1221,7 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>0.8553372206852252</v>
+        <v>0.8553452144315946</v>
       </c>
       <c r="C6" t="s">
         <v>62</v>
@@ -1254,7 +1254,7 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>0.9015429133764968</v>
+        <v>0.9164291496832149</v>
       </c>
       <c r="C9" t="s">
         <v>65</v>
@@ -1262,10 +1262,10 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B10">
-        <v>0.9348307662212567</v>
+        <v>0.9343619189549616</v>
       </c>
       <c r="C10" t="s">
         <v>66</v>
@@ -1273,10 +1273,10 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B11">
-        <v>0.9314058070974655</v>
+        <v>0.9357891764870787</v>
       </c>
       <c r="C11" t="s">
         <v>67</v>
@@ -1338,22 +1338,22 @@
         <v>5</v>
       </c>
       <c r="D2">
-        <v>0.9378567661446906</v>
+        <v>0.9399862132928403</v>
       </c>
       <c r="E2">
-        <v>0.8577502899110939</v>
+        <v>0.8488596830305373</v>
       </c>
       <c r="F2">
-        <v>0.8495842781557067</v>
+        <v>0.8442748091603054</v>
       </c>
       <c r="G2">
-        <v>0.8692962103634957</v>
+        <v>0.8553750966744006</v>
       </c>
       <c r="H2">
-        <v>0.8593272171253823</v>
+        <v>0.8497887053399923</v>
       </c>
       <c r="I2">
-        <v>0.9376804240166107</v>
+        <v>0.9373442301968393</v>
       </c>
       <c r="J2" t="s">
         <v>79</v>

--- a/rill_final_enhanced/comprehensive_results.xlsx
+++ b/rill_final_enhanced/comprehensive_results.xlsx
@@ -12,13 +12,14 @@
     <sheet name="Feature_Importance" sheetId="3" r:id="rId3"/>
     <sheet name="Hyperparameter_Tuning" sheetId="4" r:id="rId4"/>
     <sheet name="Summary" sheetId="5" r:id="rId5"/>
+    <sheet name="Comparative_Results" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="89">
   <si>
     <t>Model</t>
   </si>
@@ -41,12 +42,12 @@
     <t>XGBoost</t>
   </si>
   <si>
+    <t>GBM</t>
+  </si>
+  <si>
     <t>LightGBM</t>
   </si>
   <si>
-    <t>GBM</t>
-  </si>
-  <si>
     <t>RandomForest</t>
   </si>
   <si>
@@ -95,52 +96,55 @@
     <t>Contract_Two year</t>
   </si>
   <si>
+    <t>Churn_Risk_Score</t>
+  </si>
+  <si>
+    <t>PaperlessBilling_Yes</t>
+  </si>
+  <si>
     <t>PaymentMethod_Electronic check</t>
   </si>
   <si>
-    <t>PaperlessBilling_Yes</t>
-  </si>
-  <si>
-    <t>Churn_Risk_Score</t>
+    <t>Contract_One year</t>
+  </si>
+  <si>
+    <t>TechSupport_Yes</t>
   </si>
   <si>
     <t>gender_Male</t>
   </si>
   <si>
-    <t>Contract_One year</t>
-  </si>
-  <si>
     <t>MultipleLines_Yes</t>
   </si>
   <si>
-    <t>TechSupport_Yes</t>
+    <t>MonthlyCharges</t>
   </si>
   <si>
     <t>OnlineSecurity_Yes</t>
   </si>
   <si>
+    <t>Partner_Yes</t>
+  </si>
+  <si>
     <t>StreamingTV_Yes</t>
   </si>
   <si>
-    <t>Partner_Yes</t>
-  </si>
-  <si>
-    <t>MonthlyCharges</t>
+    <t>StreamingMovies_Yes</t>
+  </si>
+  <si>
+    <t>Engagement_Score</t>
   </si>
   <si>
     <t>TotalCharges</t>
   </si>
   <si>
-    <t>StreamingMovies_Yes</t>
-  </si>
-  <si>
-    <t>Engagement_Score</t>
+    <t>Dependents_Yes</t>
   </si>
   <si>
     <t>OnlineBackup_Yes</t>
   </si>
   <si>
-    <t>Dependents_Yes</t>
+    <t>Service_Utilization</t>
   </si>
   <si>
     <t>SeniorCitizen</t>
@@ -149,7 +153,7 @@
     <t>DeviceProtection_Yes</t>
   </si>
   <si>
-    <t>Service_Utilization</t>
+    <t>Payment_Reliability</t>
   </si>
   <si>
     <t>PaymentMethod_Mailed check</t>
@@ -158,36 +162,33 @@
     <t>PaymentMethod_Credit card (automatic)</t>
   </si>
   <si>
-    <t>Payment_Reliability</t>
+    <t>OnlineBackup_No internet service</t>
+  </si>
+  <si>
+    <t>PhoneService_Yes</t>
   </si>
   <si>
     <t>MultipleLines_No phone service</t>
   </si>
   <si>
+    <t>OnlineSecurity_No internet service</t>
+  </si>
+  <si>
+    <t>DeviceProtection_No internet service</t>
+  </si>
+  <si>
+    <t>StreamingTV_No internet service</t>
+  </si>
+  <si>
     <t>TechSupport_No internet service</t>
   </si>
   <si>
-    <t>PhoneService_Yes</t>
-  </si>
-  <si>
     <t>StreamingMovies_No internet service</t>
   </si>
   <si>
     <t>InternetService_No</t>
   </si>
   <si>
-    <t>OnlineBackup_No internet service</t>
-  </si>
-  <si>
-    <t>DeviceProtection_No internet service</t>
-  </si>
-  <si>
-    <t>StreamingTV_No internet service</t>
-  </si>
-  <si>
-    <t>OnlineSecurity_No internet service</t>
-  </si>
-  <si>
     <t>Best_Score</t>
   </si>
   <si>
@@ -200,7 +201,7 @@
     <t>{'n_estimators': 200, 'learning_rate': 0.1, 'max_depth': 5}</t>
   </si>
   <si>
-    <t>{'n_estimators': 389, 'learning_rate': 0.024330402377997752, 'max_depth': 9, 'subsample': 0.8530775100878596}</t>
+    <t>{'n_estimators': 264, 'learning_rate': 0.040435977764864704, 'max_depth': 8, 'subsample': 0.9396810473416601}</t>
   </si>
   <si>
     <t>{'n_estimators': 200, 'max_depth': None, 'min_samples_split': 2}</t>
@@ -218,10 +219,10 @@
     <t>{'n_estimators': 100, 'learning_rate': 1.0}</t>
   </si>
   <si>
-    <t>{'n_estimators': 329, 'learning_rate': 0.025401461056286573, 'max_depth': 10}</t>
-  </si>
-  <si>
-    <t>{'iterations': 470, 'learning_rate': 0.055830482499039276, 'depth': 8}</t>
+    <t>{'n_estimators': 337, 'learning_rate': 0.020713257301171004, 'max_depth': 9}</t>
+  </si>
+  <si>
+    <t>{'iterations': 336, 'learning_rate': 0.08491024370403978, 'depth': 10}</t>
   </si>
   <si>
     <t>Dataset_Shape</t>
@@ -257,7 +258,34 @@
     <t>(7043, 24)</t>
   </si>
   <si>
-    <t>0.29 seconds</t>
+    <t>0.31 seconds</t>
+  </si>
+  <si>
+    <t>Scenario</t>
+  </si>
+  <si>
+    <t>Accuracy</t>
+  </si>
+  <si>
+    <t>Precision</t>
+  </si>
+  <si>
+    <t>Recall</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>ROC_AUC</t>
+  </si>
+  <si>
+    <t>No Feature Engineering</t>
+  </si>
+  <si>
+    <t>Feature Engineering</t>
+  </si>
+  <si>
+    <t>Feature Engineering + SMOTE</t>
   </si>
 </sst>
 </file>
@@ -643,16 +671,16 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>0.9399862132928403</v>
+        <v>0.9408122800714469</v>
       </c>
       <c r="C2">
-        <v>0.004408357756093469</v>
+        <v>0.004439423084684349</v>
       </c>
       <c r="D2">
-        <v>0.9337781141666434</v>
+        <v>0.9352297255627505</v>
       </c>
       <c r="E2">
-        <v>0.9456174006394548</v>
+        <v>0.9474195430465122</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -660,16 +688,16 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>0.9399349346653103</v>
+        <v>0.9389822350837246</v>
       </c>
       <c r="C3">
-        <v>0.004154994186249861</v>
+        <v>0.003817224862165264</v>
       </c>
       <c r="D3">
-        <v>0.9336940169502612</v>
+        <v>0.9332272773993403</v>
       </c>
       <c r="E3">
-        <v>0.9451473780018202</v>
+        <v>0.9438348619571052</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -677,16 +705,16 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>0.9371586786273403</v>
+        <v>0.9365267018141573</v>
       </c>
       <c r="C4">
-        <v>0.004770549328645539</v>
+        <v>0.005620164765551236</v>
       </c>
       <c r="D4">
-        <v>0.9305216830656239</v>
+        <v>0.9287509694540222</v>
       </c>
       <c r="E4">
-        <v>0.9431912063292026</v>
+        <v>0.9435562090130458</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -694,16 +722,16 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>0.9365267018141573</v>
+        <v>0.9358021757209306</v>
       </c>
       <c r="C5">
-        <v>0.005620164765551236</v>
+        <v>0.00476923411761053</v>
       </c>
       <c r="D5">
-        <v>0.9287509694540222</v>
+        <v>0.9291677178818716</v>
       </c>
       <c r="E5">
-        <v>0.9435562090130458</v>
+        <v>0.9421326051949871</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -840,19 +868,19 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
-        <v>0.8488596830305373</v>
+        <v>0.8577502899110939</v>
       </c>
       <c r="B2">
-        <v>0.8442748091603054</v>
+        <v>0.8560431100846805</v>
       </c>
       <c r="C2">
-        <v>0.8553750966744006</v>
+        <v>0.860015467904099</v>
       </c>
       <c r="D2">
-        <v>0.8497887053399923</v>
+        <v>0.8580246913580247</v>
       </c>
       <c r="E2">
-        <v>0.9373442301968393</v>
+        <v>0.938701855550814</v>
       </c>
     </row>
   </sheetData>
@@ -881,7 +909,7 @@
         <v>22</v>
       </c>
       <c r="B2">
-        <v>0.1056053937291425</v>
+        <v>0.09831535075976734</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -889,7 +917,7 @@
         <v>23</v>
       </c>
       <c r="B3">
-        <v>0.0986179420753179</v>
+        <v>0.08452104515737395</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -897,7 +925,7 @@
         <v>24</v>
       </c>
       <c r="B4">
-        <v>0.07300695698395551</v>
+        <v>0.06505402468366005</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -905,7 +933,7 @@
         <v>25</v>
       </c>
       <c r="B5">
-        <v>0.05545561905866541</v>
+        <v>0.06423153347626288</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -913,7 +941,7 @@
         <v>26</v>
       </c>
       <c r="B6">
-        <v>0.05390967941987079</v>
+        <v>0.06207988669831658</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -921,7 +949,7 @@
         <v>27</v>
       </c>
       <c r="B7">
-        <v>0.0515911627919607</v>
+        <v>0.05524395818037838</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -929,7 +957,7 @@
         <v>28</v>
       </c>
       <c r="B8">
-        <v>0.04813526711462898</v>
+        <v>0.04605512606470746</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -937,7 +965,7 @@
         <v>29</v>
       </c>
       <c r="B9">
-        <v>0.0469590324445362</v>
+        <v>0.04476238415211353</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -945,7 +973,7 @@
         <v>30</v>
       </c>
       <c r="B10">
-        <v>0.04389220702032604</v>
+        <v>0.04283704625333935</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -953,7 +981,7 @@
         <v>31</v>
       </c>
       <c r="B11">
-        <v>0.04099343712620392</v>
+        <v>0.03879958983533133</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -961,7 +989,7 @@
         <v>32</v>
       </c>
       <c r="B12">
-        <v>0.03894688543481777</v>
+        <v>0.03842125945634847</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -969,7 +997,7 @@
         <v>33</v>
       </c>
       <c r="B13">
-        <v>0.03430473577578552</v>
+        <v>0.03838571064059735</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -977,7 +1005,7 @@
         <v>34</v>
       </c>
       <c r="B14">
-        <v>0.03414249398720823</v>
+        <v>0.03293259049817319</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -985,7 +1013,7 @@
         <v>35</v>
       </c>
       <c r="B15">
-        <v>0.03317016779921974</v>
+        <v>0.03088697596257657</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -993,7 +1021,7 @@
         <v>36</v>
       </c>
       <c r="B16">
-        <v>0.0331492231993009</v>
+        <v>0.03050738294890358</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1001,7 +1029,7 @@
         <v>37</v>
       </c>
       <c r="B17">
-        <v>0.0314018207327075</v>
+        <v>0.02984503193220509</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1009,7 +1037,7 @@
         <v>38</v>
       </c>
       <c r="B18">
-        <v>0.02935029416586906</v>
+        <v>0.02852663208842904</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1017,7 +1045,7 @@
         <v>39</v>
       </c>
       <c r="B19">
-        <v>0.02559386333463404</v>
+        <v>0.02807371620597136</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1025,7 +1053,7 @@
         <v>40</v>
       </c>
       <c r="B20">
-        <v>0.02430567990955977</v>
+        <v>0.02728885202204224</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1033,7 +1061,7 @@
         <v>41</v>
       </c>
       <c r="B21">
-        <v>0.01870481754653981</v>
+        <v>0.01912299871012789</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1041,7 +1069,7 @@
         <v>42</v>
       </c>
       <c r="B22">
-        <v>0.0183512915492769</v>
+        <v>0.01859785916434884</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -1049,7 +1077,7 @@
         <v>43</v>
       </c>
       <c r="B23">
-        <v>0.01583205317198501</v>
+        <v>0.01670343486910839</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1057,7 +1085,7 @@
         <v>44</v>
       </c>
       <c r="B24">
-        <v>0.01019461334084678</v>
+        <v>0.01641862046388125</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -1065,7 +1093,7 @@
         <v>45</v>
       </c>
       <c r="B25">
-        <v>0.008214671033119635</v>
+        <v>0.01554130097768571</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1073,7 +1101,7 @@
         <v>46</v>
       </c>
       <c r="B26">
-        <v>0.007801955749687254</v>
+        <v>0.008123237475500675</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -1081,7 +1109,7 @@
         <v>47</v>
       </c>
       <c r="B27">
-        <v>0.004477365454863085</v>
+        <v>0.005798559770640363</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -1089,7 +1117,7 @@
         <v>48</v>
       </c>
       <c r="B28">
-        <v>0.003686965305675825</v>
+        <v>0.003853627837621522</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -1097,7 +1125,7 @@
         <v>49</v>
       </c>
       <c r="B29">
-        <v>0.003343738507926415</v>
+        <v>0.003160258522460472</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1105,7 +1133,7 @@
         <v>50</v>
       </c>
       <c r="B30">
-        <v>0.002499174218535384</v>
+        <v>0.003086195260744489</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1113,7 +1141,7 @@
         <v>51</v>
       </c>
       <c r="B31">
-        <v>0.001522227681526917</v>
+        <v>0.002130485645282485</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1121,7 +1149,7 @@
         <v>52</v>
       </c>
       <c r="B32">
-        <v>0.001324943316811789</v>
+        <v>0.0006953242861001574</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1129,7 +1157,7 @@
         <v>53</v>
       </c>
       <c r="B33">
-        <v>0.0008183815607708296</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1137,7 +1165,7 @@
         <v>54</v>
       </c>
       <c r="B34">
-        <v>0.0006959394587238863</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1185,7 +1213,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>0.9321785069177858</v>
@@ -1199,7 +1227,7 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.9350274647018457</v>
+        <v>0.9351456164279991</v>
       </c>
       <c r="C4" t="s">
         <v>60</v>
@@ -1262,10 +1290,10 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>0.9343619189549616</v>
+        <v>0.9334813234350913</v>
       </c>
       <c r="C10" t="s">
         <v>66</v>
@@ -1276,7 +1304,7 @@
         <v>5</v>
       </c>
       <c r="B11">
-        <v>0.9357891764870787</v>
+        <v>0.9361114074765897</v>
       </c>
       <c r="C11" t="s">
         <v>67</v>
@@ -1338,25 +1366,118 @@
         <v>5</v>
       </c>
       <c r="D2">
-        <v>0.9399862132928403</v>
+        <v>0.9408122800714469</v>
       </c>
       <c r="E2">
-        <v>0.8488596830305373</v>
+        <v>0.8577502899110939</v>
       </c>
       <c r="F2">
-        <v>0.8442748091603054</v>
+        <v>0.8560431100846805</v>
       </c>
       <c r="G2">
-        <v>0.8553750966744006</v>
+        <v>0.860015467904099</v>
       </c>
       <c r="H2">
-        <v>0.8497887053399923</v>
+        <v>0.8580246913580247</v>
       </c>
       <c r="I2">
-        <v>0.9373442301968393</v>
+        <v>0.938701855550814</v>
       </c>
       <c r="J2" t="s">
         <v>79</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2">
+        <v>0.7847813742191937</v>
+      </c>
+      <c r="C2">
+        <v>0.6170212765957447</v>
+      </c>
+      <c r="D2">
+        <v>0.4967880085653105</v>
+      </c>
+      <c r="E2">
+        <v>0.5504151838671412</v>
+      </c>
+      <c r="F2">
+        <v>0.8248811017080976</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3">
+        <v>0.7802385008517888</v>
+      </c>
+      <c r="C3">
+        <v>0.6104972375690608</v>
+      </c>
+      <c r="D3">
+        <v>0.4732334047109208</v>
+      </c>
+      <c r="E3">
+        <v>0.5331724969843185</v>
+      </c>
+      <c r="F3">
+        <v>0.8239866754482059</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4">
+        <v>0.8577502899110939</v>
+      </c>
+      <c r="C4">
+        <v>0.8560431100846805</v>
+      </c>
+      <c r="D4">
+        <v>0.860015467904099</v>
+      </c>
+      <c r="E4">
+        <v>0.8580246913580247</v>
+      </c>
+      <c r="F4">
+        <v>0.938701855550814</v>
       </c>
     </row>
   </sheetData>

--- a/rill_final_enhanced/comprehensive_results.xlsx
+++ b/rill_final_enhanced/comprehensive_results.xlsx
@@ -39,15 +39,15 @@
     <t>CatBoost</t>
   </si>
   <si>
+    <t>LightGBM</t>
+  </si>
+  <si>
+    <t>GBM</t>
+  </si>
+  <si>
     <t>XGBoost</t>
   </si>
   <si>
-    <t>GBM</t>
-  </si>
-  <si>
-    <t>LightGBM</t>
-  </si>
-  <si>
     <t>RandomForest</t>
   </si>
   <si>
@@ -87,21 +87,21 @@
     <t>importance</t>
   </si>
   <si>
+    <t>InternetService_Fiber optic</t>
+  </si>
+  <si>
     <t>tenure</t>
   </si>
   <si>
-    <t>InternetService_Fiber optic</t>
-  </si>
-  <si>
     <t>Contract_Two year</t>
   </si>
   <si>
+    <t>PaperlessBilling_Yes</t>
+  </si>
+  <si>
     <t>Churn_Risk_Score</t>
   </si>
   <si>
-    <t>PaperlessBilling_Yes</t>
-  </si>
-  <si>
     <t>PaymentMethod_Electronic check</t>
   </si>
   <si>
@@ -111,84 +111,84 @@
     <t>TechSupport_Yes</t>
   </si>
   <si>
+    <t>OnlineSecurity_Yes</t>
+  </si>
+  <si>
     <t>gender_Male</t>
   </si>
   <si>
     <t>MultipleLines_Yes</t>
   </si>
   <si>
+    <t>StreamingTV_Yes</t>
+  </si>
+  <si>
+    <t>StreamingMovies_Yes</t>
+  </si>
+  <si>
+    <t>TotalCharges</t>
+  </si>
+  <si>
+    <t>Dependents_Yes</t>
+  </si>
+  <si>
+    <t>Partner_Yes</t>
+  </si>
+  <si>
+    <t>OnlineBackup_Yes</t>
+  </si>
+  <si>
     <t>MonthlyCharges</t>
   </si>
   <si>
-    <t>OnlineSecurity_Yes</t>
-  </si>
-  <si>
-    <t>Partner_Yes</t>
-  </si>
-  <si>
-    <t>StreamingTV_Yes</t>
-  </si>
-  <si>
-    <t>StreamingMovies_Yes</t>
-  </si>
-  <si>
     <t>Engagement_Score</t>
   </si>
   <si>
-    <t>TotalCharges</t>
-  </si>
-  <si>
-    <t>Dependents_Yes</t>
-  </si>
-  <si>
-    <t>OnlineBackup_Yes</t>
+    <t>Payment_Reliability</t>
+  </si>
+  <si>
+    <t>SeniorCitizen</t>
+  </si>
+  <si>
+    <t>DeviceProtection_Yes</t>
   </si>
   <si>
     <t>Service_Utilization</t>
   </si>
   <si>
-    <t>SeniorCitizen</t>
-  </si>
-  <si>
-    <t>DeviceProtection_Yes</t>
-  </si>
-  <si>
-    <t>Payment_Reliability</t>
+    <t>PaymentMethod_Credit card (automatic)</t>
   </si>
   <si>
     <t>PaymentMethod_Mailed check</t>
   </si>
   <si>
-    <t>PaymentMethod_Credit card (automatic)</t>
+    <t>StreamingMovies_No internet service</t>
+  </si>
+  <si>
+    <t>DeviceProtection_No internet service</t>
+  </si>
+  <si>
+    <t>PhoneService_Yes</t>
+  </si>
+  <si>
+    <t>MultipleLines_No phone service</t>
   </si>
   <si>
     <t>OnlineBackup_No internet service</t>
   </si>
   <si>
-    <t>PhoneService_Yes</t>
-  </si>
-  <si>
-    <t>MultipleLines_No phone service</t>
+    <t>TechSupport_No internet service</t>
+  </si>
+  <si>
+    <t>InternetService_No</t>
   </si>
   <si>
     <t>OnlineSecurity_No internet service</t>
   </si>
   <si>
-    <t>DeviceProtection_No internet service</t>
-  </si>
-  <si>
     <t>StreamingTV_No internet service</t>
   </si>
   <si>
-    <t>TechSupport_No internet service</t>
-  </si>
-  <si>
-    <t>StreamingMovies_No internet service</t>
-  </si>
-  <si>
-    <t>InternetService_No</t>
-  </si>
-  <si>
     <t>Best_Score</t>
   </si>
   <si>
@@ -201,7 +201,7 @@
     <t>{'n_estimators': 200, 'learning_rate': 0.1, 'max_depth': 5}</t>
   </si>
   <si>
-    <t>{'n_estimators': 264, 'learning_rate': 0.040435977764864704, 'max_depth': 8, 'subsample': 0.9396810473416601}</t>
+    <t>{'n_estimators': 291, 'learning_rate': 0.07864739828591524, 'max_depth': 3, 'subsample': 0.7798687238338512}</t>
   </si>
   <si>
     <t>{'n_estimators': 200, 'max_depth': None, 'min_samples_split': 2}</t>
@@ -213,16 +213,16 @@
     <t>{'C': 1, 'kernel': 'rbf'}</t>
   </si>
   <si>
-    <t>{'hidden_layer_sizes': (50, 50), 'alpha': 0.001}</t>
+    <t>{'hidden_layer_sizes': (50, 50), 'alpha': 0.0001}</t>
   </si>
   <si>
     <t>{'n_estimators': 100, 'learning_rate': 1.0}</t>
   </si>
   <si>
-    <t>{'n_estimators': 337, 'learning_rate': 0.020713257301171004, 'max_depth': 9}</t>
-  </si>
-  <si>
-    <t>{'iterations': 336, 'learning_rate': 0.08491024370403978, 'depth': 10}</t>
+    <t>{'n_estimators': 246, 'learning_rate': 0.0577208198980123, 'max_depth': 7}</t>
+  </si>
+  <si>
+    <t>{'iterations': 285, 'learning_rate': 0.036882429084892344, 'depth': 10}</t>
   </si>
   <si>
     <t>Dataset_Shape</t>
@@ -258,7 +258,7 @@
     <t>(7043, 24)</t>
   </si>
   <si>
-    <t>0.31 seconds</t>
+    <t>0.70 seconds</t>
   </si>
   <si>
     <t>Scenario</t>
@@ -671,16 +671,16 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>0.9408122800714469</v>
+        <v>0.939583091864179</v>
       </c>
       <c r="C2">
-        <v>0.004439423084684349</v>
+        <v>0.004376262991709473</v>
       </c>
       <c r="D2">
-        <v>0.9352297255627505</v>
+        <v>0.9339925620684179</v>
       </c>
       <c r="E2">
-        <v>0.9474195430465122</v>
+        <v>0.9458713155499545</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -688,16 +688,16 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>0.9389822350837246</v>
+        <v>0.9382742856668234</v>
       </c>
       <c r="C3">
-        <v>0.003817224862165264</v>
+        <v>0.004009631096013364</v>
       </c>
       <c r="D3">
-        <v>0.9332272773993403</v>
+        <v>0.9326834487334025</v>
       </c>
       <c r="E3">
-        <v>0.9438348619571052</v>
+        <v>0.9438119909449463</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -722,16 +722,16 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>0.9358021757209306</v>
+        <v>0.935421025829853</v>
       </c>
       <c r="C5">
-        <v>0.00476923411761053</v>
+        <v>0.005026990740965076</v>
       </c>
       <c r="D5">
-        <v>0.9291677178818716</v>
+        <v>0.9288546893542269</v>
       </c>
       <c r="E5">
-        <v>0.9421326051949871</v>
+        <v>0.9414758804172793</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -790,16 +790,16 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>0.8829621914172719</v>
+        <v>0.882688844497476</v>
       </c>
       <c r="C9">
-        <v>0.008521545835548957</v>
+        <v>0.009056043022216208</v>
       </c>
       <c r="D9">
-        <v>0.8709402068791521</v>
+        <v>0.8708009792653642</v>
       </c>
       <c r="E9">
-        <v>0.892567854559033</v>
+        <v>0.8938299610259283</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -868,19 +868,19 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
-        <v>0.8577502899110939</v>
+        <v>0.8616157711635098</v>
       </c>
       <c r="B2">
-        <v>0.8560431100846805</v>
+        <v>0.8491411501120238</v>
       </c>
       <c r="C2">
-        <v>0.860015467904099</v>
+        <v>0.8793503480278422</v>
       </c>
       <c r="D2">
-        <v>0.8580246913580247</v>
+        <v>0.8639817629179332</v>
       </c>
       <c r="E2">
-        <v>0.938701855550814</v>
+        <v>0.938316054465192</v>
       </c>
     </row>
   </sheetData>
@@ -909,7 +909,7 @@
         <v>22</v>
       </c>
       <c r="B2">
-        <v>0.09831535075976734</v>
+        <v>0.1107539399497054</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -917,7 +917,7 @@
         <v>23</v>
       </c>
       <c r="B3">
-        <v>0.08452104515737395</v>
+        <v>0.0894834526052404</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -925,7 +925,7 @@
         <v>24</v>
       </c>
       <c r="B4">
-        <v>0.06505402468366005</v>
+        <v>0.06765703265354092</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -933,7 +933,7 @@
         <v>25</v>
       </c>
       <c r="B5">
-        <v>0.06423153347626288</v>
+        <v>0.06709223472663503</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -941,7 +941,7 @@
         <v>26</v>
       </c>
       <c r="B6">
-        <v>0.06207988669831658</v>
+        <v>0.06023732796848675</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -949,7 +949,7 @@
         <v>27</v>
       </c>
       <c r="B7">
-        <v>0.05524395818037838</v>
+        <v>0.05646297446329009</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -957,7 +957,7 @@
         <v>28</v>
       </c>
       <c r="B8">
-        <v>0.04605512606470746</v>
+        <v>0.05010119396334388</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -965,7 +965,7 @@
         <v>29</v>
       </c>
       <c r="B9">
-        <v>0.04476238415211353</v>
+        <v>0.04796161820581532</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -973,7 +973,7 @@
         <v>30</v>
       </c>
       <c r="B10">
-        <v>0.04283704625333935</v>
+        <v>0.04071218296030935</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -981,7 +981,7 @@
         <v>31</v>
       </c>
       <c r="B11">
-        <v>0.03879958983533133</v>
+        <v>0.03963536450256898</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -989,7 +989,7 @@
         <v>32</v>
       </c>
       <c r="B12">
-        <v>0.03842125945634847</v>
+        <v>0.03509993151019453</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -997,7 +997,7 @@
         <v>33</v>
       </c>
       <c r="B13">
-        <v>0.03838571064059735</v>
+        <v>0.03434370940929069</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1005,7 +1005,7 @@
         <v>34</v>
       </c>
       <c r="B14">
-        <v>0.03293259049817319</v>
+        <v>0.033012600978308</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1013,7 +1013,7 @@
         <v>35</v>
       </c>
       <c r="B15">
-        <v>0.03088697596257657</v>
+        <v>0.03136373808905659</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1021,7 +1021,7 @@
         <v>36</v>
       </c>
       <c r="B16">
-        <v>0.03050738294890358</v>
+        <v>0.03036816341675659</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1029,7 +1029,7 @@
         <v>37</v>
       </c>
       <c r="B17">
-        <v>0.02984503193220509</v>
+        <v>0.02957087822281954</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1037,7 +1037,7 @@
         <v>38</v>
       </c>
       <c r="B18">
-        <v>0.02852663208842904</v>
+        <v>0.0279632952055656</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1045,7 +1045,7 @@
         <v>39</v>
       </c>
       <c r="B19">
-        <v>0.02807371620597136</v>
+        <v>0.02658982894051249</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1053,7 +1053,7 @@
         <v>40</v>
       </c>
       <c r="B20">
-        <v>0.02728885202204224</v>
+        <v>0.02082682398867237</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1061,7 +1061,7 @@
         <v>41</v>
       </c>
       <c r="B21">
-        <v>0.01912299871012789</v>
+        <v>0.0169255283394775</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1069,7 +1069,7 @@
         <v>42</v>
       </c>
       <c r="B22">
-        <v>0.01859785916434884</v>
+        <v>0.0166997370020243</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -1077,7 +1077,7 @@
         <v>43</v>
       </c>
       <c r="B23">
-        <v>0.01670343486910839</v>
+        <v>0.01392605034979754</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1085,7 +1085,7 @@
         <v>44</v>
       </c>
       <c r="B24">
-        <v>0.01641862046388125</v>
+        <v>0.01212431057692957</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -1093,7 +1093,7 @@
         <v>45</v>
       </c>
       <c r="B25">
-        <v>0.01554130097768571</v>
+        <v>0.008810925480977446</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1101,7 +1101,7 @@
         <v>46</v>
       </c>
       <c r="B26">
-        <v>0.008123237475500675</v>
+        <v>0.008387962831437553</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -1109,7 +1109,7 @@
         <v>47</v>
       </c>
       <c r="B27">
-        <v>0.005798559770640363</v>
+        <v>0.005828751461677397</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -1117,7 +1117,7 @@
         <v>48</v>
       </c>
       <c r="B28">
-        <v>0.003853627837621522</v>
+        <v>0.004144142822466791</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -1125,7 +1125,7 @@
         <v>49</v>
       </c>
       <c r="B29">
-        <v>0.003160258522460472</v>
+        <v>0.003652081224445045</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1133,7 +1133,7 @@
         <v>50</v>
       </c>
       <c r="B30">
-        <v>0.003086195260744489</v>
+        <v>0.003482070121785031</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1141,7 +1141,7 @@
         <v>51</v>
       </c>
       <c r="B31">
-        <v>0.002130485645282485</v>
+        <v>0.002420952123161623</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1149,7 +1149,7 @@
         <v>52</v>
       </c>
       <c r="B32">
-        <v>0.0006953242861001574</v>
+        <v>0.002097200877593429</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1157,7 +1157,7 @@
         <v>53</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>0.001639097176958762</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1165,7 +1165,7 @@
         <v>54</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>0.0006248978511554411</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1224,10 +1224,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.9351456164279991</v>
+        <v>0.9328052168896042</v>
       </c>
       <c r="C4" t="s">
         <v>60</v>
@@ -1271,7 +1271,7 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.8729208249023055</v>
+        <v>0.8726648540384059</v>
       </c>
       <c r="C8" t="s">
         <v>64</v>
@@ -1290,10 +1290,10 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B10">
-        <v>0.9334813234350913</v>
+        <v>0.9342412471960977</v>
       </c>
       <c r="C10" t="s">
         <v>66</v>
@@ -1304,7 +1304,7 @@
         <v>5</v>
       </c>
       <c r="B11">
-        <v>0.9361114074765897</v>
+        <v>0.9357614229998715</v>
       </c>
       <c r="C11" t="s">
         <v>67</v>
@@ -1366,22 +1366,22 @@
         <v>5</v>
       </c>
       <c r="D2">
-        <v>0.9408122800714469</v>
+        <v>0.939583091864179</v>
       </c>
       <c r="E2">
-        <v>0.8577502899110939</v>
+        <v>0.8616157711635098</v>
       </c>
       <c r="F2">
-        <v>0.8560431100846805</v>
+        <v>0.8491411501120238</v>
       </c>
       <c r="G2">
-        <v>0.860015467904099</v>
+        <v>0.8793503480278422</v>
       </c>
       <c r="H2">
-        <v>0.8580246913580247</v>
+        <v>0.8639817629179332</v>
       </c>
       <c r="I2">
-        <v>0.938701855550814</v>
+        <v>0.938316054465192</v>
       </c>
       <c r="J2" t="s">
         <v>79</v>
@@ -1425,19 +1425,19 @@
         <v>86</v>
       </c>
       <c r="B2">
-        <v>0.7847813742191937</v>
+        <v>0.7984099943214082</v>
       </c>
       <c r="C2">
-        <v>0.6170212765957447</v>
+        <v>0.6497326203208557</v>
       </c>
       <c r="D2">
-        <v>0.4967880085653105</v>
+        <v>0.5203426124197003</v>
       </c>
       <c r="E2">
-        <v>0.5504151838671412</v>
+        <v>0.5778834720570749</v>
       </c>
       <c r="F2">
-        <v>0.8248811017080976</v>
+        <v>0.8386003263290629</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1445,19 +1445,19 @@
         <v>87</v>
       </c>
       <c r="B3">
-        <v>0.7802385008517888</v>
+        <v>0.7910278250993753</v>
       </c>
       <c r="C3">
-        <v>0.6104972375690608</v>
+        <v>0.6356164383561644</v>
       </c>
       <c r="D3">
-        <v>0.4732334047109208</v>
+        <v>0.4967880085653105</v>
       </c>
       <c r="E3">
-        <v>0.5331724969843185</v>
+        <v>0.5576923076923077</v>
       </c>
       <c r="F3">
-        <v>0.8239866754482059</v>
+        <v>0.8332114287983743</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1465,19 +1465,19 @@
         <v>88</v>
       </c>
       <c r="B4">
-        <v>0.8577502899110939</v>
+        <v>0.8616157711635098</v>
       </c>
       <c r="C4">
-        <v>0.8560431100846805</v>
+        <v>0.8491411501120238</v>
       </c>
       <c r="D4">
-        <v>0.860015467904099</v>
+        <v>0.8793503480278422</v>
       </c>
       <c r="E4">
-        <v>0.8580246913580247</v>
+        <v>0.8639817629179332</v>
       </c>
       <c r="F4">
-        <v>0.938701855550814</v>
+        <v>0.938316054465192</v>
       </c>
     </row>
   </sheetData>

--- a/rill_final_enhanced/comprehensive_results.xlsx
+++ b/rill_final_enhanced/comprehensive_results.xlsx
@@ -39,15 +39,15 @@
     <t>CatBoost</t>
   </si>
   <si>
+    <t>XGBoost</t>
+  </si>
+  <si>
     <t>LightGBM</t>
   </si>
   <si>
     <t>GBM</t>
   </si>
   <si>
-    <t>XGBoost</t>
-  </si>
-  <si>
     <t>RandomForest</t>
   </si>
   <si>
@@ -87,142 +87,142 @@
     <t>importance</t>
   </si>
   <si>
+    <t>tenure</t>
+  </si>
+  <si>
     <t>InternetService_Fiber optic</t>
   </si>
   <si>
-    <t>tenure</t>
-  </si>
-  <si>
     <t>Contract_Two year</t>
   </si>
   <si>
+    <t>Churn_Risk_Score</t>
+  </si>
+  <si>
     <t>PaperlessBilling_Yes</t>
   </si>
   <si>
-    <t>Churn_Risk_Score</t>
-  </si>
-  <si>
     <t>PaymentMethod_Electronic check</t>
   </si>
   <si>
     <t>Contract_One year</t>
   </si>
   <si>
+    <t>gender_Male</t>
+  </si>
+  <si>
+    <t>TotalCharges</t>
+  </si>
+  <si>
     <t>TechSupport_Yes</t>
   </si>
   <si>
+    <t>MultipleLines_Yes</t>
+  </si>
+  <si>
+    <t>StreamingMovies_Yes</t>
+  </si>
+  <si>
+    <t>MonthlyCharges</t>
+  </si>
+  <si>
     <t>OnlineSecurity_Yes</t>
   </si>
   <si>
-    <t>gender_Male</t>
-  </si>
-  <si>
-    <t>MultipleLines_Yes</t>
-  </si>
-  <si>
     <t>StreamingTV_Yes</t>
   </si>
   <si>
-    <t>StreamingMovies_Yes</t>
-  </si>
-  <si>
-    <t>TotalCharges</t>
+    <t>Partner_Yes</t>
+  </si>
+  <si>
+    <t>Engagement_Score</t>
   </si>
   <si>
     <t>Dependents_Yes</t>
   </si>
   <si>
-    <t>Partner_Yes</t>
-  </si>
-  <si>
     <t>OnlineBackup_Yes</t>
   </si>
   <si>
-    <t>MonthlyCharges</t>
-  </si>
-  <si>
-    <t>Engagement_Score</t>
+    <t>Service_Utilization</t>
+  </si>
+  <si>
+    <t>DeviceProtection_Yes</t>
+  </si>
+  <si>
+    <t>SeniorCitizen</t>
+  </si>
+  <si>
+    <t>PaymentMethod_Mailed check</t>
   </si>
   <si>
     <t>Payment_Reliability</t>
   </si>
   <si>
-    <t>SeniorCitizen</t>
-  </si>
-  <si>
-    <t>DeviceProtection_Yes</t>
-  </si>
-  <si>
-    <t>Service_Utilization</t>
-  </si>
-  <si>
     <t>PaymentMethod_Credit card (automatic)</t>
   </si>
   <si>
-    <t>PaymentMethod_Mailed check</t>
+    <t>OnlineBackup_No internet service</t>
+  </si>
+  <si>
+    <t>MultipleLines_No phone service</t>
+  </si>
+  <si>
+    <t>DeviceProtection_No internet service</t>
+  </si>
+  <si>
+    <t>PhoneService_Yes</t>
+  </si>
+  <si>
+    <t>InternetService_No</t>
+  </si>
+  <si>
+    <t>StreamingTV_No internet service</t>
+  </si>
+  <si>
+    <t>TechSupport_No internet service</t>
   </si>
   <si>
     <t>StreamingMovies_No internet service</t>
   </si>
   <si>
-    <t>DeviceProtection_No internet service</t>
-  </si>
-  <si>
-    <t>PhoneService_Yes</t>
-  </si>
-  <si>
-    <t>MultipleLines_No phone service</t>
-  </si>
-  <si>
-    <t>OnlineBackup_No internet service</t>
-  </si>
-  <si>
-    <t>TechSupport_No internet service</t>
-  </si>
-  <si>
-    <t>InternetService_No</t>
-  </si>
-  <si>
     <t>OnlineSecurity_No internet service</t>
   </si>
   <si>
-    <t>StreamingTV_No internet service</t>
-  </si>
-  <si>
     <t>Best_Score</t>
   </si>
   <si>
     <t>Best_Params</t>
   </si>
   <si>
-    <t>{'max_depth': 7, 'min_samples_split': 2}</t>
+    <t>{'max_depth': 7, 'min_samples_split': 5}</t>
   </si>
   <si>
     <t>{'n_estimators': 200, 'learning_rate': 0.1, 'max_depth': 5}</t>
   </si>
   <si>
-    <t>{'n_estimators': 291, 'learning_rate': 0.07864739828591524, 'max_depth': 3, 'subsample': 0.7798687238338512}</t>
+    <t>{'n_estimators': 302, 'learning_rate': 0.02907273095225152, 'max_depth': 8, 'subsample': 0.8600266810843992}</t>
   </si>
   <si>
     <t>{'n_estimators': 200, 'max_depth': None, 'min_samples_split': 2}</t>
   </si>
   <si>
-    <t>{'C': 10, 'penalty': 'l1', 'solver': 'liblinear'}</t>
+    <t>{'C': 10, 'penalty': 'l2', 'solver': 'liblinear'}</t>
   </si>
   <si>
     <t>{'C': 1, 'kernel': 'rbf'}</t>
   </si>
   <si>
-    <t>{'hidden_layer_sizes': (50, 50), 'alpha': 0.0001}</t>
+    <t>{'hidden_layer_sizes': (50, 50), 'alpha': 0.001}</t>
   </si>
   <si>
     <t>{'n_estimators': 100, 'learning_rate': 1.0}</t>
   </si>
   <si>
-    <t>{'n_estimators': 246, 'learning_rate': 0.0577208198980123, 'max_depth': 7}</t>
-  </si>
-  <si>
-    <t>{'iterations': 285, 'learning_rate': 0.036882429084892344, 'depth': 10}</t>
+    <t>{'n_estimators': 500, 'learning_rate': 0.022319343024361726, 'max_depth': 10}</t>
+  </si>
+  <si>
+    <t>{'iterations': 278, 'learning_rate': 0.10162274581307693, 'depth': 10}</t>
   </si>
   <si>
     <t>Dataset_Shape</t>
@@ -258,7 +258,7 @@
     <t>(7043, 24)</t>
   </si>
   <si>
-    <t>0.70 seconds</t>
+    <t>0.42 seconds</t>
   </si>
   <si>
     <t>Scenario</t>
@@ -671,16 +671,16 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>0.939583091864179</v>
+        <v>0.9419872785242479</v>
       </c>
       <c r="C2">
-        <v>0.004376262991709473</v>
+        <v>0.004345461207002485</v>
       </c>
       <c r="D2">
-        <v>0.9339925620684179</v>
+        <v>0.9374241957035666</v>
       </c>
       <c r="E2">
-        <v>0.9458713155499545</v>
+        <v>0.949126000606782</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -688,16 +688,16 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>0.9382742856668234</v>
+        <v>0.9389903705301688</v>
       </c>
       <c r="C3">
-        <v>0.004009631096013364</v>
+        <v>0.004451371507519387</v>
       </c>
       <c r="D3">
-        <v>0.9326834487334025</v>
+        <v>0.9319317130602978</v>
       </c>
       <c r="E3">
-        <v>0.9438119909449463</v>
+        <v>0.9442661439006745</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -705,16 +705,16 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>0.9365267018141573</v>
+        <v>0.9385187696816489</v>
       </c>
       <c r="C4">
-        <v>0.005620164765551236</v>
+        <v>0.004475100884908753</v>
       </c>
       <c r="D4">
-        <v>0.9287509694540222</v>
+        <v>0.9317943542735402</v>
       </c>
       <c r="E4">
-        <v>0.9435562090130458</v>
+        <v>0.9445447968447339</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -722,16 +722,16 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>0.935421025829853</v>
+        <v>0.9365267018141573</v>
       </c>
       <c r="C5">
-        <v>0.005026990740965076</v>
+        <v>0.005620164765551236</v>
       </c>
       <c r="D5">
-        <v>0.9288546893542269</v>
+        <v>0.9287509694540222</v>
       </c>
       <c r="E5">
-        <v>0.9414758804172793</v>
+        <v>0.9435562090130458</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -790,16 +790,16 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>0.882688844497476</v>
+        <v>0.8829621914172719</v>
       </c>
       <c r="C9">
-        <v>0.009056043022216208</v>
+        <v>0.008521545835548957</v>
       </c>
       <c r="D9">
-        <v>0.8708009792653642</v>
+        <v>0.8709402068791521</v>
       </c>
       <c r="E9">
-        <v>0.8938299610259283</v>
+        <v>0.892567854559033</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -807,16 +807,16 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>0.8679995172648246</v>
+        <v>0.8683755236383371</v>
       </c>
       <c r="C10">
-        <v>0.005312929410991729</v>
+        <v>0.004866435914500868</v>
       </c>
       <c r="D10">
-        <v>0.8621174744671507</v>
+        <v>0.8632177463814836</v>
       </c>
       <c r="E10">
-        <v>0.876990828257369</v>
+        <v>0.8766561646712875</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -824,16 +824,16 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>0.8578936439703041</v>
+        <v>0.8579057844846097</v>
       </c>
       <c r="C11">
-        <v>0.008293769420679668</v>
+        <v>0.00826930363894569</v>
       </c>
       <c r="D11">
-        <v>0.8465987348041002</v>
+        <v>0.8466529307879909</v>
       </c>
       <c r="E11">
-        <v>0.871335153679199</v>
+        <v>0.8712912786762819</v>
       </c>
     </row>
   </sheetData>
@@ -868,19 +868,19 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
-        <v>0.8616157711635098</v>
+        <v>0.8596830305373019</v>
       </c>
       <c r="B2">
-        <v>0.8491411501120238</v>
+        <v>0.8582434514637904</v>
       </c>
       <c r="C2">
-        <v>0.8793503480278422</v>
+        <v>0.8615622583139985</v>
       </c>
       <c r="D2">
-        <v>0.8639817629179332</v>
+        <v>0.8598996526437669</v>
       </c>
       <c r="E2">
-        <v>0.938316054465192</v>
+        <v>0.9394925834149163</v>
       </c>
     </row>
   </sheetData>
@@ -909,7 +909,7 @@
         <v>22</v>
       </c>
       <c r="B2">
-        <v>0.1107539399497054</v>
+        <v>0.09125901675266701</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -917,7 +917,7 @@
         <v>23</v>
       </c>
       <c r="B3">
-        <v>0.0894834526052404</v>
+        <v>0.08457561598903</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -925,7 +925,7 @@
         <v>24</v>
       </c>
       <c r="B4">
-        <v>0.06765703265354092</v>
+        <v>0.06735669179538166</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -933,7 +933,7 @@
         <v>25</v>
       </c>
       <c r="B5">
-        <v>0.06709223472663503</v>
+        <v>0.06455214573745545</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -941,7 +941,7 @@
         <v>26</v>
       </c>
       <c r="B6">
-        <v>0.06023732796848675</v>
+        <v>0.06101771337470295</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -949,7 +949,7 @@
         <v>27</v>
       </c>
       <c r="B7">
-        <v>0.05646297446329009</v>
+        <v>0.05255572495738543</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -957,7 +957,7 @@
         <v>28</v>
       </c>
       <c r="B8">
-        <v>0.05010119396334388</v>
+        <v>0.04529166341531481</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -965,7 +965,7 @@
         <v>29</v>
       </c>
       <c r="B9">
-        <v>0.04796161820581532</v>
+        <v>0.04442008246369538</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -973,7 +973,7 @@
         <v>30</v>
       </c>
       <c r="B10">
-        <v>0.04071218296030935</v>
+        <v>0.03970333988924647</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -981,7 +981,7 @@
         <v>31</v>
       </c>
       <c r="B11">
-        <v>0.03963536450256898</v>
+        <v>0.03933191578154016</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -989,7 +989,7 @@
         <v>32</v>
       </c>
       <c r="B12">
-        <v>0.03509993151019453</v>
+        <v>0.03828954446646321</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -997,7 +997,7 @@
         <v>33</v>
       </c>
       <c r="B13">
-        <v>0.03434370940929069</v>
+        <v>0.03790229407194959</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1005,7 +1005,7 @@
         <v>34</v>
       </c>
       <c r="B14">
-        <v>0.033012600978308</v>
+        <v>0.03752437129981614</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1013,7 +1013,7 @@
         <v>35</v>
       </c>
       <c r="B15">
-        <v>0.03136373808905659</v>
+        <v>0.03685016969566083</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1021,7 +1021,7 @@
         <v>36</v>
       </c>
       <c r="B16">
-        <v>0.03036816341675659</v>
+        <v>0.03355786764889356</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1029,7 +1029,7 @@
         <v>37</v>
       </c>
       <c r="B17">
-        <v>0.02957087822281954</v>
+        <v>0.03261169475909398</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1037,7 +1037,7 @@
         <v>38</v>
       </c>
       <c r="B18">
-        <v>0.0279632952055656</v>
+        <v>0.03104617836760491</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1045,7 +1045,7 @@
         <v>39</v>
       </c>
       <c r="B19">
-        <v>0.02658982894051249</v>
+        <v>0.02545286316634199</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1053,7 +1053,7 @@
         <v>40</v>
       </c>
       <c r="B20">
-        <v>0.02082682398867237</v>
+        <v>0.02521520339895763</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1061,7 +1061,7 @@
         <v>41</v>
       </c>
       <c r="B21">
-        <v>0.0169255283394775</v>
+        <v>0.01908784988734324</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1069,7 +1069,7 @@
         <v>42</v>
       </c>
       <c r="B22">
-        <v>0.0166997370020243</v>
+        <v>0.01825446470725127</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -1077,7 +1077,7 @@
         <v>43</v>
       </c>
       <c r="B23">
-        <v>0.01392605034979754</v>
+        <v>0.01823703484357902</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1085,7 +1085,7 @@
         <v>44</v>
       </c>
       <c r="B24">
-        <v>0.01212431057692957</v>
+        <v>0.01332433182609526</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -1093,7 +1093,7 @@
         <v>45</v>
       </c>
       <c r="B25">
-        <v>0.008810925480977446</v>
+        <v>0.01150174827330978</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1101,7 +1101,7 @@
         <v>46</v>
       </c>
       <c r="B26">
-        <v>0.008387962831437553</v>
+        <v>0.01012487720028983</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -1109,7 +1109,7 @@
         <v>47</v>
       </c>
       <c r="B27">
-        <v>0.005828751461677397</v>
+        <v>0.00702161930102212</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -1117,7 +1117,7 @@
         <v>48</v>
       </c>
       <c r="B28">
-        <v>0.004144142822466791</v>
+        <v>0.004739728684015085</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -1125,7 +1125,7 @@
         <v>49</v>
       </c>
       <c r="B29">
-        <v>0.003652081224445045</v>
+        <v>0.003876290331680037</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1133,7 +1133,7 @@
         <v>50</v>
       </c>
       <c r="B30">
-        <v>0.003482070121785031</v>
+        <v>0.002898581717100195</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1141,7 +1141,7 @@
         <v>51</v>
       </c>
       <c r="B31">
-        <v>0.002420952123161623</v>
+        <v>0.001817241817796501</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1149,7 +1149,7 @@
         <v>52</v>
       </c>
       <c r="B32">
-        <v>0.002097200877593429</v>
+        <v>0.0006021343793164046</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1157,7 +1157,7 @@
         <v>53</v>
       </c>
       <c r="B33">
-        <v>0.001639097176958762</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1165,7 +1165,7 @@
         <v>54</v>
       </c>
       <c r="B34">
-        <v>0.0006248978511554411</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1205,7 +1205,7 @@
         <v>13</v>
       </c>
       <c r="B2">
-        <v>0.861913002503627</v>
+        <v>0.8609591813432551</v>
       </c>
       <c r="C2" t="s">
         <v>58</v>
@@ -1213,7 +1213,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0.9321785069177858</v>
@@ -1224,10 +1224,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B4">
-        <v>0.9328052168896042</v>
+        <v>0.9350648456501229</v>
       </c>
       <c r="C4" t="s">
         <v>60</v>
@@ -1249,7 +1249,7 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>0.8553452144315946</v>
+        <v>0.8553372206852252</v>
       </c>
       <c r="C6" t="s">
         <v>62</v>
@@ -1271,7 +1271,7 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.8726648540384059</v>
+        <v>0.8729208249023055</v>
       </c>
       <c r="C8" t="s">
         <v>64</v>
@@ -1290,10 +1290,10 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B10">
-        <v>0.9342412471960977</v>
+        <v>0.9346429061286512</v>
       </c>
       <c r="C10" t="s">
         <v>66</v>
@@ -1304,7 +1304,7 @@
         <v>5</v>
       </c>
       <c r="B11">
-        <v>0.9357614229998715</v>
+        <v>0.9354859345456779</v>
       </c>
       <c r="C11" t="s">
         <v>67</v>
@@ -1366,22 +1366,22 @@
         <v>5</v>
       </c>
       <c r="D2">
-        <v>0.939583091864179</v>
+        <v>0.9419872785242479</v>
       </c>
       <c r="E2">
-        <v>0.8616157711635098</v>
+        <v>0.8596830305373019</v>
       </c>
       <c r="F2">
-        <v>0.8491411501120238</v>
+        <v>0.8582434514637904</v>
       </c>
       <c r="G2">
-        <v>0.8793503480278422</v>
+        <v>0.8615622583139985</v>
       </c>
       <c r="H2">
-        <v>0.8639817629179332</v>
+        <v>0.8598996526437669</v>
       </c>
       <c r="I2">
-        <v>0.938316054465192</v>
+        <v>0.9394925834149163</v>
       </c>
       <c r="J2" t="s">
         <v>79</v>
@@ -1425,19 +1425,19 @@
         <v>86</v>
       </c>
       <c r="B2">
-        <v>0.7984099943214082</v>
+        <v>0.7967064168086314</v>
       </c>
       <c r="C2">
-        <v>0.6497326203208557</v>
+        <v>0.6437994722955145</v>
       </c>
       <c r="D2">
-        <v>0.5203426124197003</v>
+        <v>0.5224839400428265</v>
       </c>
       <c r="E2">
-        <v>0.5778834720570749</v>
+        <v>0.5768321513002365</v>
       </c>
       <c r="F2">
-        <v>0.8386003263290629</v>
+        <v>0.8283694468623097</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1445,19 +1445,19 @@
         <v>87</v>
       </c>
       <c r="B3">
-        <v>0.7910278250993753</v>
+        <v>0.7808063600227144</v>
       </c>
       <c r="C3">
-        <v>0.6356164383561644</v>
+        <v>0.608</v>
       </c>
       <c r="D3">
-        <v>0.4967880085653105</v>
+        <v>0.4882226980728052</v>
       </c>
       <c r="E3">
-        <v>0.5576923076923077</v>
+        <v>0.5415676959619953</v>
       </c>
       <c r="F3">
-        <v>0.8332114287983743</v>
+        <v>0.823900625188235</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1465,19 +1465,19 @@
         <v>88</v>
       </c>
       <c r="B4">
-        <v>0.8616157711635098</v>
+        <v>0.8596830305373019</v>
       </c>
       <c r="C4">
-        <v>0.8491411501120238</v>
+        <v>0.8582434514637904</v>
       </c>
       <c r="D4">
-        <v>0.8793503480278422</v>
+        <v>0.8615622583139985</v>
       </c>
       <c r="E4">
-        <v>0.8639817629179332</v>
+        <v>0.8598996526437669</v>
       </c>
       <c r="F4">
-        <v>0.938316054465192</v>
+        <v>0.9394925834149163</v>
       </c>
     </row>
   </sheetData>

--- a/rill_final_enhanced/comprehensive_results.xlsx
+++ b/rill_final_enhanced/comprehensive_results.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="84">
   <si>
     <t>Model</t>
   </si>
@@ -87,127 +87,127 @@
     <t>importance</t>
   </si>
   <si>
+    <t>InternetService_Fiber optic</t>
+  </si>
+  <si>
     <t>tenure</t>
   </si>
   <si>
-    <t>InternetService_Fiber optic</t>
-  </si>
-  <si>
     <t>Contract_Two year</t>
   </si>
   <si>
+    <t>PaperlessBilling_Yes</t>
+  </si>
+  <si>
     <t>Churn_Risk_Score</t>
   </si>
   <si>
-    <t>PaperlessBilling_Yes</t>
+    <t>Contract_One year</t>
   </si>
   <si>
     <t>PaymentMethod_Electronic check</t>
   </si>
   <si>
-    <t>Contract_One year</t>
+    <t>TechSupport_Yes</t>
   </si>
   <si>
     <t>gender_Male</t>
   </si>
   <si>
+    <t>MultipleLines_Yes</t>
+  </si>
+  <si>
+    <t>OnlineSecurity_Yes</t>
+  </si>
+  <si>
+    <t>StreamingTV_Yes</t>
+  </si>
+  <si>
+    <t>StreamingMovies_Yes</t>
+  </si>
+  <si>
+    <t>Partner_Yes</t>
+  </si>
+  <si>
+    <t>Dependents_Yes</t>
+  </si>
+  <si>
+    <t>MonthlyCharges</t>
+  </si>
+  <si>
     <t>TotalCharges</t>
   </si>
   <si>
-    <t>TechSupport_Yes</t>
-  </si>
-  <si>
-    <t>MultipleLines_Yes</t>
-  </si>
-  <si>
-    <t>StreamingMovies_Yes</t>
-  </si>
-  <si>
-    <t>MonthlyCharges</t>
-  </si>
-  <si>
-    <t>OnlineSecurity_Yes</t>
-  </si>
-  <si>
-    <t>StreamingTV_Yes</t>
-  </si>
-  <si>
-    <t>Partner_Yes</t>
-  </si>
-  <si>
     <t>Engagement_Score</t>
   </si>
   <si>
-    <t>Dependents_Yes</t>
-  </si>
-  <si>
     <t>OnlineBackup_Yes</t>
   </si>
   <si>
+    <t>DeviceProtection_Yes</t>
+  </si>
+  <si>
+    <t>SeniorCitizen</t>
+  </si>
+  <si>
+    <t>Payment_Reliability</t>
+  </si>
+  <si>
+    <t>PaymentMethod_Mailed check</t>
+  </si>
+  <si>
     <t>Service_Utilization</t>
   </si>
   <si>
-    <t>DeviceProtection_Yes</t>
-  </si>
-  <si>
-    <t>SeniorCitizen</t>
-  </si>
-  <si>
-    <t>PaymentMethod_Mailed check</t>
-  </si>
-  <si>
-    <t>Payment_Reliability</t>
-  </si>
-  <si>
     <t>PaymentMethod_Credit card (automatic)</t>
   </si>
   <si>
+    <t>DeviceProtection_No internet service</t>
+  </si>
+  <si>
+    <t>StreamingTV_No internet service</t>
+  </si>
+  <si>
     <t>OnlineBackup_No internet service</t>
   </si>
   <si>
     <t>MultipleLines_No phone service</t>
   </si>
   <si>
-    <t>DeviceProtection_No internet service</t>
-  </si>
-  <si>
     <t>PhoneService_Yes</t>
   </si>
   <si>
+    <t>OnlineSecurity_No internet service</t>
+  </si>
+  <si>
+    <t>TechSupport_No internet service</t>
+  </si>
+  <si>
     <t>InternetService_No</t>
   </si>
   <si>
-    <t>StreamingTV_No internet service</t>
-  </si>
-  <si>
-    <t>TechSupport_No internet service</t>
-  </si>
-  <si>
     <t>StreamingMovies_No internet service</t>
   </si>
   <si>
-    <t>OnlineSecurity_No internet service</t>
-  </si>
-  <si>
     <t>Best_Score</t>
   </si>
   <si>
     <t>Best_Params</t>
   </si>
   <si>
-    <t>{'max_depth': 7, 'min_samples_split': 5}</t>
+    <t>{'max_depth': 7, 'min_samples_split': 2}</t>
   </si>
   <si>
     <t>{'n_estimators': 200, 'learning_rate': 0.1, 'max_depth': 5}</t>
   </si>
   <si>
-    <t>{'n_estimators': 302, 'learning_rate': 0.02907273095225152, 'max_depth': 8, 'subsample': 0.8600266810843992}</t>
-  </si>
-  <si>
-    <t>{'n_estimators': 200, 'max_depth': None, 'min_samples_split': 2}</t>
-  </si>
-  <si>
-    <t>{'C': 10, 'penalty': 'l2', 'solver': 'liblinear'}</t>
+    <t>{'n_estimators': 302, 'learning_rate': 0.04106205403437861, 'max_depth': 9, 'subsample': 0.9751857931563537}</t>
+  </si>
+  <si>
+    <t>{'n_estimators': 100, 'max_depth': None, 'min_samples_split': 2}</t>
+  </si>
+  <si>
+    <t>{'C': 1, 'penalty': 'l2', 'solver': 'liblinear'}</t>
   </si>
   <si>
     <t>{'C': 1, 'kernel': 'rbf'}</t>
@@ -219,10 +219,10 @@
     <t>{'n_estimators': 100, 'learning_rate': 1.0}</t>
   </si>
   <si>
-    <t>{'n_estimators': 500, 'learning_rate': 0.022319343024361726, 'max_depth': 10}</t>
-  </si>
-  <si>
-    <t>{'iterations': 278, 'learning_rate': 0.10162274581307693, 'depth': 10}</t>
+    <t>{'n_estimators': 300, 'learning_rate': 0.059041861214951766, 'max_depth': 6}</t>
+  </si>
+  <si>
+    <t>{'iterations': 457, 'learning_rate': 0.03815444426329361, 'depth': 9}</t>
   </si>
   <si>
     <t>Dataset_Shape</t>
@@ -258,25 +258,10 @@
     <t>(7043, 24)</t>
   </si>
   <si>
-    <t>0.42 seconds</t>
+    <t>0.12 seconds</t>
   </si>
   <si>
     <t>Scenario</t>
-  </si>
-  <si>
-    <t>Accuracy</t>
-  </si>
-  <si>
-    <t>Precision</t>
-  </si>
-  <si>
-    <t>Recall</t>
-  </si>
-  <si>
-    <t>F1</t>
-  </si>
-  <si>
-    <t>ROC_AUC</t>
   </si>
   <si>
     <t>No Feature Engineering</t>
@@ -671,16 +656,16 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>0.9419872785242479</v>
+        <v>0.9372580732264613</v>
       </c>
       <c r="C2">
-        <v>0.004345461207002485</v>
+        <v>0.007925471490140286</v>
       </c>
       <c r="D2">
-        <v>0.9374241957035666</v>
+        <v>0.9253988867042193</v>
       </c>
       <c r="E2">
-        <v>0.949126000606782</v>
+        <v>0.9483408297841287</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -688,16 +673,16 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>0.9389903705301688</v>
+        <v>0.9362806580968714</v>
       </c>
       <c r="C3">
-        <v>0.004451371507519387</v>
+        <v>0.007027310522959706</v>
       </c>
       <c r="D3">
-        <v>0.9319317130602978</v>
+        <v>0.9254370815176957</v>
       </c>
       <c r="E3">
-        <v>0.9442661439006745</v>
+        <v>0.9462527697063778</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -705,16 +690,16 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>0.9385187696816489</v>
+        <v>0.9359926842495062</v>
       </c>
       <c r="C4">
-        <v>0.004475100884908753</v>
+        <v>0.006313609707357394</v>
       </c>
       <c r="D4">
-        <v>0.9317943542735402</v>
+        <v>0.9271458842597513</v>
       </c>
       <c r="E4">
-        <v>0.9445447968447339</v>
+        <v>0.9443902665552151</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -722,16 +707,16 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>0.9365267018141573</v>
+        <v>0.9342883152347495</v>
       </c>
       <c r="C5">
-        <v>0.005620164765551236</v>
+        <v>0.007529899928670331</v>
       </c>
       <c r="D5">
-        <v>0.9287509694540222</v>
+        <v>0.9246374814007865</v>
       </c>
       <c r="E5">
-        <v>0.9435562090130458</v>
+        <v>0.9465173015430747</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -739,16 +724,16 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>0.931586238806392</v>
+        <v>0.9226874240506469</v>
       </c>
       <c r="C6">
-        <v>0.003900995165645471</v>
+        <v>0.01005240929718218</v>
       </c>
       <c r="D6">
-        <v>0.9273974714770274</v>
+        <v>0.9065381217451377</v>
       </c>
       <c r="E6">
-        <v>0.936930150061845</v>
+        <v>0.9367122092637556</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -756,16 +741,16 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>0.9179217360518358</v>
+        <v>0.9157685758234436</v>
       </c>
       <c r="C7">
-        <v>0.005741320012973289</v>
+        <v>0.0103000462859303</v>
       </c>
       <c r="D7">
-        <v>0.9092586363169157</v>
+        <v>0.9018335171112765</v>
       </c>
       <c r="E7">
-        <v>0.9245844710494995</v>
+        <v>0.9326165266886918</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -773,16 +758,16 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>0.8950952007122488</v>
+        <v>0.8865114901864954</v>
       </c>
       <c r="C8">
-        <v>0.006587526915806162</v>
+        <v>0.01152103343212771</v>
       </c>
       <c r="D8">
-        <v>0.8866168624262981</v>
+        <v>0.8723944494632798</v>
       </c>
       <c r="E8">
-        <v>0.9024289948423534</v>
+        <v>0.9010621479434583</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -790,16 +775,16 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>0.8829621914172719</v>
+        <v>0.8703778985997142</v>
       </c>
       <c r="C9">
-        <v>0.008521545835548957</v>
+        <v>0.008232015685954599</v>
       </c>
       <c r="D9">
-        <v>0.8709402068791521</v>
+        <v>0.8552781910936337</v>
       </c>
       <c r="E9">
-        <v>0.892567854559033</v>
+        <v>0.8802740516658043</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -807,16 +792,16 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>0.8683755236383371</v>
+        <v>0.8624127935317686</v>
       </c>
       <c r="C10">
-        <v>0.004866435914500868</v>
+        <v>0.009474740460806881</v>
       </c>
       <c r="D10">
-        <v>0.8632177463814836</v>
+        <v>0.8462409660962908</v>
       </c>
       <c r="E10">
-        <v>0.8766561646712875</v>
+        <v>0.8737992410672824</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -824,16 +809,16 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>0.8579057844846097</v>
+        <v>0.8557465014824658</v>
       </c>
       <c r="C11">
-        <v>0.00826930363894569</v>
+        <v>0.01379405980122303</v>
       </c>
       <c r="D11">
-        <v>0.8466529307879909</v>
+        <v>0.8373498777765969</v>
       </c>
       <c r="E11">
-        <v>0.8712912786762819</v>
+        <v>0.8730330109196087</v>
       </c>
     </row>
   </sheetData>
@@ -868,19 +853,19 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
-        <v>0.8596830305373019</v>
+        <v>0.8608426749130267</v>
       </c>
       <c r="B2">
-        <v>0.8582434514637904</v>
+        <v>0.8531415594246783</v>
       </c>
       <c r="C2">
-        <v>0.8615622583139985</v>
+        <v>0.8716163959783449</v>
       </c>
       <c r="D2">
-        <v>0.8598996526437669</v>
+        <v>0.8622800306044377</v>
       </c>
       <c r="E2">
-        <v>0.9394925834149163</v>
+        <v>0.939705356747963</v>
       </c>
     </row>
   </sheetData>
@@ -909,7 +894,7 @@
         <v>22</v>
       </c>
       <c r="B2">
-        <v>0.09125901675266701</v>
+        <v>0.1109574691320115</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -917,7 +902,7 @@
         <v>23</v>
       </c>
       <c r="B3">
-        <v>0.08457561598903</v>
+        <v>0.1029050248370214</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -925,7 +910,7 @@
         <v>24</v>
       </c>
       <c r="B4">
-        <v>0.06735669179538166</v>
+        <v>0.0750887460978102</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -933,7 +918,7 @@
         <v>25</v>
       </c>
       <c r="B5">
-        <v>0.06455214573745545</v>
+        <v>0.06081741851150831</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -941,7 +926,7 @@
         <v>26</v>
       </c>
       <c r="B6">
-        <v>0.06101771337470295</v>
+        <v>0.05536851258783842</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -949,7 +934,7 @@
         <v>27</v>
       </c>
       <c r="B7">
-        <v>0.05255572495738543</v>
+        <v>0.04844740637240513</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -957,7 +942,7 @@
         <v>28</v>
       </c>
       <c r="B8">
-        <v>0.04529166341531481</v>
+        <v>0.04544673764433871</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -965,7 +950,7 @@
         <v>29</v>
       </c>
       <c r="B9">
-        <v>0.04442008246369538</v>
+        <v>0.04536465561938103</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -973,7 +958,7 @@
         <v>30</v>
       </c>
       <c r="B10">
-        <v>0.03970333988924647</v>
+        <v>0.04374913878340719</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -981,7 +966,7 @@
         <v>31</v>
       </c>
       <c r="B11">
-        <v>0.03933191578154016</v>
+        <v>0.04063586083530814</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -989,7 +974,7 @@
         <v>32</v>
       </c>
       <c r="B12">
-        <v>0.03828954446646321</v>
+        <v>0.03666557703609855</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -997,7 +982,7 @@
         <v>33</v>
       </c>
       <c r="B13">
-        <v>0.03790229407194959</v>
+        <v>0.03643458138002584</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1005,7 +990,7 @@
         <v>34</v>
       </c>
       <c r="B14">
-        <v>0.03752437129981614</v>
+        <v>0.03484164720505004</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1013,7 +998,7 @@
         <v>35</v>
       </c>
       <c r="B15">
-        <v>0.03685016969566083</v>
+        <v>0.02987435449397515</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1021,7 +1006,7 @@
         <v>36</v>
       </c>
       <c r="B16">
-        <v>0.03355786764889356</v>
+        <v>0.02764624456850497</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1029,7 +1014,7 @@
         <v>37</v>
       </c>
       <c r="B17">
-        <v>0.03261169475909398</v>
+        <v>0.02679000068630231</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1037,7 +1022,7 @@
         <v>38</v>
       </c>
       <c r="B18">
-        <v>0.03104617836760491</v>
+        <v>0.02605537521175607</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1045,7 +1030,7 @@
         <v>39</v>
       </c>
       <c r="B19">
-        <v>0.02545286316634199</v>
+        <v>0.02587761150236683</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1053,7 +1038,7 @@
         <v>40</v>
       </c>
       <c r="B20">
-        <v>0.02521520339895763</v>
+        <v>0.02455153018324823</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1061,7 +1046,7 @@
         <v>41</v>
       </c>
       <c r="B21">
-        <v>0.01908784988734324</v>
+        <v>0.01801622208627341</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1069,7 +1054,7 @@
         <v>42</v>
       </c>
       <c r="B22">
-        <v>0.01825446470725127</v>
+        <v>0.01753531761174303</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -1077,7 +1062,7 @@
         <v>43</v>
       </c>
       <c r="B23">
-        <v>0.01823703484357902</v>
+        <v>0.01343222634589163</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1085,7 +1070,7 @@
         <v>44</v>
       </c>
       <c r="B24">
-        <v>0.01332433182609526</v>
+        <v>0.01231852717055697</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -1093,7 +1078,7 @@
         <v>45</v>
       </c>
       <c r="B25">
-        <v>0.01150174827330978</v>
+        <v>0.01199020478271128</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1101,7 +1086,7 @@
         <v>46</v>
       </c>
       <c r="B26">
-        <v>0.01012487720028983</v>
+        <v>0.007915072255231049</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -1109,7 +1094,7 @@
         <v>47</v>
       </c>
       <c r="B27">
-        <v>0.00702161930102212</v>
+        <v>0.005352468577447137</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -1117,7 +1102,7 @@
         <v>48</v>
       </c>
       <c r="B28">
-        <v>0.004739728684015085</v>
+        <v>0.005021498126983054</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -1125,7 +1110,7 @@
         <v>49</v>
       </c>
       <c r="B29">
-        <v>0.003876290331680037</v>
+        <v>0.003246319065615007</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1133,7 +1118,7 @@
         <v>50</v>
       </c>
       <c r="B30">
-        <v>0.002898581717100195</v>
+        <v>0.002850855683639797</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1141,7 +1126,7 @@
         <v>51</v>
       </c>
       <c r="B31">
-        <v>0.001817241817796501</v>
+        <v>0.002393347840012093</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1149,7 +1134,7 @@
         <v>52</v>
       </c>
       <c r="B32">
-        <v>0.0006021343793164046</v>
+        <v>0.00178326701895841</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1157,7 +1142,7 @@
         <v>53</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>0.0004243147921682989</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1165,7 +1150,7 @@
         <v>54</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>0.0002024659544108147</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1205,7 +1190,7 @@
         <v>13</v>
       </c>
       <c r="B2">
-        <v>0.8609591813432551</v>
+        <v>0.861913002503627</v>
       </c>
       <c r="C2" t="s">
         <v>58</v>
@@ -1227,7 +1212,7 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.9350648456501229</v>
+        <v>0.9349643117118074</v>
       </c>
       <c r="C4" t="s">
         <v>60</v>
@@ -1238,7 +1223,7 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.9231447417024391</v>
+        <v>0.9215325465547991</v>
       </c>
       <c r="C5" t="s">
         <v>61</v>
@@ -1249,7 +1234,7 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>0.8553372206852252</v>
+        <v>0.8553077552599287</v>
       </c>
       <c r="C6" t="s">
         <v>62</v>
@@ -1293,7 +1278,7 @@
         <v>7</v>
       </c>
       <c r="B10">
-        <v>0.9346429061286512</v>
+        <v>0.9344891542117935</v>
       </c>
       <c r="C10" t="s">
         <v>66</v>
@@ -1304,7 +1289,7 @@
         <v>5</v>
       </c>
       <c r="B11">
-        <v>0.9354859345456779</v>
+        <v>0.9368782277192775</v>
       </c>
       <c r="C11" t="s">
         <v>67</v>
@@ -1366,22 +1351,22 @@
         <v>5</v>
       </c>
       <c r="D2">
-        <v>0.9419872785242479</v>
+        <v>0.9372580732264613</v>
       </c>
       <c r="E2">
-        <v>0.8596830305373019</v>
+        <v>0.8608426749130267</v>
       </c>
       <c r="F2">
-        <v>0.8582434514637904</v>
+        <v>0.8531415594246783</v>
       </c>
       <c r="G2">
-        <v>0.8615622583139985</v>
+        <v>0.8716163959783449</v>
       </c>
       <c r="H2">
-        <v>0.8598996526437669</v>
+        <v>0.8622800306044377</v>
       </c>
       <c r="I2">
-        <v>0.9394925834149163</v>
+        <v>0.939705356747963</v>
       </c>
       <c r="J2" t="s">
         <v>79</v>
@@ -1394,90 +1379,723 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
         <v>81</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2">
+        <v>0.7830777967064169</v>
+      </c>
+      <c r="D2">
+        <v>0.6158038147138964</v>
+      </c>
+      <c r="E2">
+        <v>0.4839400428265525</v>
+      </c>
+      <c r="F2">
+        <v>0.5419664268585132</v>
+      </c>
+      <c r="G2">
+        <v>0.8111552578363656</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
         <v>82</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="C3">
+        <v>0.7898921067575241</v>
+      </c>
+      <c r="D3">
+        <v>0.6520376175548589</v>
+      </c>
+      <c r="E3">
+        <v>0.4453961456102783</v>
+      </c>
+      <c r="F3">
+        <v>0.5292620865139949</v>
+      </c>
+      <c r="G3">
+        <v>0.8190718817537043</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
         <v>83</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B2">
+      <c r="C4">
+        <v>0.7943563973714728</v>
+      </c>
+      <c r="D4">
+        <v>0.7670175438596492</v>
+      </c>
+      <c r="E4">
+        <v>0.8453209590100541</v>
+      </c>
+      <c r="F4">
+        <v>0.8042678440029434</v>
+      </c>
+      <c r="G4">
+        <v>0.8635047114949002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5">
+        <v>0.7910278250993753</v>
+      </c>
+      <c r="D5">
+        <v>0.6386554621848739</v>
+      </c>
+      <c r="E5">
+        <v>0.4882226980728052</v>
+      </c>
+      <c r="F5">
+        <v>0.5533980582524272</v>
+      </c>
+      <c r="G5">
+        <v>0.8268147503384093</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6">
+        <v>0.7825099375354913</v>
+      </c>
+      <c r="D6">
+        <v>0.6147540983606558</v>
+      </c>
+      <c r="E6">
+        <v>0.4817987152034261</v>
+      </c>
+      <c r="F6">
+        <v>0.5402160864345739</v>
+      </c>
+      <c r="G6">
+        <v>0.825697751771477</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7">
+        <v>0.8507924236567452</v>
+      </c>
+      <c r="D7">
+        <v>0.8501930501930502</v>
+      </c>
+      <c r="E7">
+        <v>0.851508120649652</v>
+      </c>
+      <c r="F7">
+        <v>0.8508500772797527</v>
+      </c>
+      <c r="G7">
+        <v>0.9351343161548751</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C8">
+        <v>0.7847813742191937</v>
+      </c>
+      <c r="D8">
+        <v>0.6139896373056994</v>
+      </c>
+      <c r="E8">
+        <v>0.5074946466809421</v>
+      </c>
+      <c r="F8">
+        <v>0.5556858147713951</v>
+      </c>
+      <c r="G8">
+        <v>0.8266724364469187</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9">
+        <v>0.7881885292447472</v>
+      </c>
+      <c r="D9">
+        <v>0.6263440860215054</v>
+      </c>
+      <c r="E9">
+        <v>0.4989293361884368</v>
+      </c>
+      <c r="F9">
+        <v>0.5554231227651967</v>
+      </c>
+      <c r="G9">
+        <v>0.8357408099977164</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C10">
+        <v>0.862388867413993</v>
+      </c>
+      <c r="D10">
+        <v>0.8595548733691482</v>
+      </c>
+      <c r="E10">
+        <v>0.8662026295436969</v>
+      </c>
+      <c r="F10">
+        <v>0.8628659476117103</v>
+      </c>
+      <c r="G10">
+        <v>0.9368607087742702</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C11">
+        <v>0.7876206700738216</v>
+      </c>
+      <c r="D11">
+        <v>0.628808864265928</v>
+      </c>
+      <c r="E11">
+        <v>0.4860813704496788</v>
+      </c>
+      <c r="F11">
+        <v>0.5483091787439613</v>
+      </c>
+      <c r="G11">
+        <v>0.8263787071941326</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C12">
+        <v>0.7853492333901193</v>
+      </c>
+      <c r="D12">
+        <v>0.6246498599439776</v>
+      </c>
+      <c r="E12">
+        <v>0.4775160599571734</v>
+      </c>
+      <c r="F12">
+        <v>0.5412621359223301</v>
+      </c>
+      <c r="G12">
+        <v>0.8280252458224252</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" t="s">
+        <v>83</v>
+      </c>
+      <c r="C13">
+        <v>0.8600695786625435</v>
+      </c>
+      <c r="D13">
+        <v>0.8523845571536715</v>
+      </c>
+      <c r="E13">
+        <v>0.8708430007733952</v>
+      </c>
+      <c r="F13">
+        <v>0.8615149196633511</v>
+      </c>
+      <c r="G13">
+        <v>0.9292062478857144</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>81</v>
+      </c>
+      <c r="C14">
+        <v>0.807495741056218</v>
+      </c>
+      <c r="D14">
+        <v>0.6624365482233503</v>
+      </c>
+      <c r="E14">
+        <v>0.5588865096359743</v>
+      </c>
+      <c r="F14">
+        <v>0.6062717770034843</v>
+      </c>
+      <c r="G14">
+        <v>0.8464102148277837</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C15">
         <v>0.7967064168086314</v>
       </c>
-      <c r="C2">
-        <v>0.6437994722955145</v>
-      </c>
-      <c r="D2">
-        <v>0.5224839400428265</v>
-      </c>
-      <c r="E2">
-        <v>0.5768321513002365</v>
-      </c>
-      <c r="F2">
-        <v>0.8283694468623097</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B3">
-        <v>0.7808063600227144</v>
-      </c>
-      <c r="C3">
-        <v>0.608</v>
-      </c>
-      <c r="D3">
-        <v>0.4882226980728052</v>
-      </c>
-      <c r="E3">
-        <v>0.5415676959619953</v>
-      </c>
-      <c r="F3">
-        <v>0.823900625188235</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>88</v>
-      </c>
-      <c r="B4">
-        <v>0.8596830305373019</v>
-      </c>
-      <c r="C4">
-        <v>0.8582434514637904</v>
-      </c>
-      <c r="D4">
-        <v>0.8615622583139985</v>
-      </c>
-      <c r="E4">
-        <v>0.8598996526437669</v>
-      </c>
-      <c r="F4">
-        <v>0.9394925834149163</v>
+      <c r="D15">
+        <v>0.650137741046832</v>
+      </c>
+      <c r="E15">
+        <v>0.5053533190578159</v>
+      </c>
+      <c r="F15">
+        <v>0.5686746987951807</v>
+      </c>
+      <c r="G15">
+        <v>0.8442341361381307</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>83</v>
+      </c>
+      <c r="C16">
+        <v>0.780827212988017</v>
+      </c>
+      <c r="D16">
+        <v>0.7563559322033898</v>
+      </c>
+      <c r="E16">
+        <v>0.8283062645011601</v>
+      </c>
+      <c r="F16">
+        <v>0.7906976744186046</v>
+      </c>
+      <c r="G16">
+        <v>0.8637599199589754</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" t="s">
+        <v>81</v>
+      </c>
+      <c r="C17">
+        <v>0.7932992617830777</v>
+      </c>
+      <c r="D17">
+        <v>0.6426592797783933</v>
+      </c>
+      <c r="E17">
+        <v>0.4967880085653105</v>
+      </c>
+      <c r="F17">
+        <v>0.5603864734299517</v>
+      </c>
+      <c r="G17">
+        <v>0.8038724271799674</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" t="s">
+        <v>82</v>
+      </c>
+      <c r="C18">
+        <v>0.7915956842703009</v>
+      </c>
+      <c r="D18">
+        <v>0.6592356687898089</v>
+      </c>
+      <c r="E18">
+        <v>0.443254817987152</v>
+      </c>
+      <c r="F18">
+        <v>0.5300896286811779</v>
+      </c>
+      <c r="G18">
+        <v>0.7987565737434179</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C19">
+        <v>0.8129107073830691</v>
+      </c>
+      <c r="D19">
+        <v>0.7879003558718861</v>
+      </c>
+      <c r="E19">
+        <v>0.8561484918793504</v>
+      </c>
+      <c r="F19">
+        <v>0.8206078576723499</v>
+      </c>
+      <c r="G19">
+        <v>0.8992058056040672</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" t="s">
+        <v>81</v>
+      </c>
+      <c r="C20">
+        <v>0.7989778534923339</v>
+      </c>
+      <c r="D20">
+        <v>0.6565096952908587</v>
+      </c>
+      <c r="E20">
+        <v>0.5074946466809421</v>
+      </c>
+      <c r="F20">
+        <v>0.572463768115942</v>
+      </c>
+      <c r="G20">
+        <v>0.8368354685933099</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" t="s">
+        <v>82</v>
+      </c>
+      <c r="C21">
+        <v>0.7910278250993753</v>
+      </c>
+      <c r="D21">
+        <v>0.6246851385390428</v>
+      </c>
+      <c r="E21">
+        <v>0.5310492505353319</v>
+      </c>
+      <c r="F21">
+        <v>0.5740740740740741</v>
+      </c>
+      <c r="G21">
+        <v>0.8310055634802697</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" t="s">
+        <v>83</v>
+      </c>
+      <c r="C22">
+        <v>0.7943563973714728</v>
+      </c>
+      <c r="D22">
+        <v>0.7692852087756546</v>
+      </c>
+      <c r="E22">
+        <v>0.8406805877803558</v>
+      </c>
+      <c r="F22">
+        <v>0.8033998521803399</v>
+      </c>
+      <c r="G22">
+        <v>0.8722869905841822</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" t="s">
+        <v>81</v>
+      </c>
+      <c r="C23">
+        <v>0.797274275979557</v>
+      </c>
+      <c r="D23">
+        <v>0.6527777777777778</v>
+      </c>
+      <c r="E23">
+        <v>0.5032119914346895</v>
+      </c>
+      <c r="F23">
+        <v>0.5683192261185006</v>
+      </c>
+      <c r="G23">
+        <v>0.8389544562450977</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" t="s">
+        <v>82</v>
+      </c>
+      <c r="C24">
+        <v>0.7830777967064169</v>
+      </c>
+      <c r="D24">
+        <v>0.6231884057971014</v>
+      </c>
+      <c r="E24">
+        <v>0.4603854389721627</v>
+      </c>
+      <c r="F24">
+        <v>0.5295566502463054</v>
+      </c>
+      <c r="G24">
+        <v>0.8313778963359137</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" t="s">
+        <v>83</v>
+      </c>
+      <c r="C25">
+        <v>0.8310784692694241</v>
+      </c>
+      <c r="D25">
+        <v>0.8048433048433048</v>
+      </c>
+      <c r="E25">
+        <v>0.8739365815931941</v>
+      </c>
+      <c r="F25">
+        <v>0.8379681127178347</v>
+      </c>
+      <c r="G25">
+        <v>0.9179588462903925</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" t="s">
+        <v>81</v>
+      </c>
+      <c r="C26">
+        <v>0.7853492333901193</v>
+      </c>
+      <c r="D26">
+        <v>0.6193029490616622</v>
+      </c>
+      <c r="E26">
+        <v>0.4946466809421842</v>
+      </c>
+      <c r="F26">
+        <v>0.55</v>
+      </c>
+      <c r="G26">
+        <v>0.8282122396565933</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" t="s">
+        <v>82</v>
+      </c>
+      <c r="C27">
+        <v>0.7955706984667802</v>
+      </c>
+      <c r="D27">
+        <v>0.6465753424657534</v>
+      </c>
+      <c r="E27">
+        <v>0.5053533190578159</v>
+      </c>
+      <c r="F27">
+        <v>0.5673076923076923</v>
+      </c>
+      <c r="G27">
+        <v>0.8310469337975634</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" t="s">
+        <v>83</v>
+      </c>
+      <c r="C28">
+        <v>0.85195206803247</v>
+      </c>
+      <c r="D28">
+        <v>0.8478593272171254</v>
+      </c>
+      <c r="E28">
+        <v>0.8576952822892498</v>
+      </c>
+      <c r="F28">
+        <v>0.8527489427143407</v>
+      </c>
+      <c r="G28">
+        <v>0.9361240707602821</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" t="s">
+        <v>81</v>
+      </c>
+      <c r="C29">
+        <v>0.7938671209540034</v>
+      </c>
+      <c r="D29">
+        <v>0.6361256544502618</v>
+      </c>
+      <c r="E29">
+        <v>0.5203426124197003</v>
+      </c>
+      <c r="F29">
+        <v>0.5724381625441696</v>
+      </c>
+      <c r="G29">
+        <v>0.8337252481391633</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" t="s">
+        <v>82</v>
+      </c>
+      <c r="C30">
+        <v>0.7915956842703009</v>
+      </c>
+      <c r="D30">
+        <v>0.6381215469613259</v>
+      </c>
+      <c r="E30">
+        <v>0.4946466809421842</v>
+      </c>
+      <c r="F30">
+        <v>0.5572979493365501</v>
+      </c>
+      <c r="G30">
+        <v>0.836682398419323</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" t="s">
+        <v>83</v>
+      </c>
+      <c r="C31">
+        <v>0.8608426749130267</v>
+      </c>
+      <c r="D31">
+        <v>0.8531415594246783</v>
+      </c>
+      <c r="E31">
+        <v>0.8716163959783449</v>
+      </c>
+      <c r="F31">
+        <v>0.8622800306044377</v>
+      </c>
+      <c r="G31">
+        <v>0.939705356747963</v>
       </c>
     </row>
   </sheetData>
